--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,152 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44086</v>
+      </c>
+      <c r="E7" s="2">
         <v>44002</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43715</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43631</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43519</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43435</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15757600</v>
+      </c>
+      <c r="E8" s="3">
         <v>22751600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15436800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14103200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14176700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18738400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14016600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13840400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11182700</v>
+      </c>
+      <c r="E9" s="3">
         <v>15980100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11018800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10108100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10235200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13498800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9957900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9988000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4574900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6771500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4418000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3995100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3941500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5239600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4058700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3852400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,37 +884,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>49100</v>
       </c>
       <c r="E14" s="3">
-        <v>66700</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>123000</v>
+      </c>
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>61700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>42700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15244700</v>
+      </c>
+      <c r="E17" s="3">
         <v>21779800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15155800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13896600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13617400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18459600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13727400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13675500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>512900</v>
+      </c>
+      <c r="E18" s="3">
         <v>971800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>281000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>206600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>559300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>278800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>289200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>164900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,153 +1039,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-50400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>28300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>873000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1428800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>640000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>606800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>935900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>805800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>703300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>594800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E22" s="3">
         <v>180600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>140500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>154800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>177500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>225200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>168300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>213000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>395700</v>
+      </c>
+      <c r="E23" s="3">
         <v>788100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>376700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>64700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>137000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E24" s="3">
         <v>201900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>81900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E26" s="3">
         <v>586200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>54800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>294800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>139000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E27" s="3">
         <v>586200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>54800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>294800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>139000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1287,17 +1348,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>60300</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>50400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-28300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E33" s="3">
         <v>586200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>54800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>294800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>135600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E35" s="3">
         <v>586200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>54800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>294800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>135600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44086</v>
+      </c>
+      <c r="E38" s="2">
         <v>44002</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43715</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43631</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43519</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43435</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,37 +1616,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2389600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2022200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>470700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>406400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>435300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>662100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>926100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>462600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,124 +1678,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>547100</v>
+      </c>
+      <c r="E43" s="3">
         <v>530000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>525300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>501200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>518600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>497400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>586200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>566900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4267100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4271600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4352500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4624200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4340300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4385400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4332800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4639500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>374800</v>
+      </c>
+      <c r="E45" s="3">
         <v>309000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>382800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>447800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>336400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>361900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>404900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>443600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7578600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7132800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5731300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5979600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5630600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5906800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6250000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6112600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,66 +1838,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14879200</v>
+      </c>
+      <c r="E48" s="3">
         <v>14875500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15079300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15058100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15063100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14943500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9861300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10143300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3261100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3268800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3270500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3307200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3361200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3454500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4017800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4076600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,37 +1966,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>750700</v>
+      </c>
+      <c r="E52" s="3">
         <v>710700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>654000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>646700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>643600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>676400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>647500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>649200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,37 +2030,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26469600</v>
+      </c>
+      <c r="E54" s="3">
         <v>25987800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24735100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24991600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24698500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24981200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20776600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20981700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,182 +2092,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3389800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3399800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2891100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3183200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2946600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3077900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2918700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3119200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E58" s="3">
         <v>219100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>221400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>133300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>117100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>145000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>148800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>412600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3006300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3131400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2791800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2655700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2666000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2491900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2085200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2008900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6727700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6750300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5904300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5972200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5729700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5714800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5152700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5540700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8460000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8484500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8493300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8615900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8628600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9688600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10437600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10565300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8181200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7959000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8059400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7992900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7994700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7523400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3735600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3485600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,37 +2378,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23368900</v>
+      </c>
+      <c r="E66" s="3">
         <v>23193800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22457000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22581000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22353000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22926800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19325900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19591600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2332,7 +2500,7 @@
         <v>1599100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,37 +2552,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1432200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1174600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>592300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>524500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>469700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>174900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-431800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-567700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,37 +2680,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1501600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1194900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2278100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2410600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2345500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2054400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1450700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1390100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44086</v>
+      </c>
+      <c r="E80" s="2">
         <v>44002</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43715</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43631</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43519</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43435</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E81" s="3">
         <v>586200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>54800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>294800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>135600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +2829,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E83" s="3">
         <v>460100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>409400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>384300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>381700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>515900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>398000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>401600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>628900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2091900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>516900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>302200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>282100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>802700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>618800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-122200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-402300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-391400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-367400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-354200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-362100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-445700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-285700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-399400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-353100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-333100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>601700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-294000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>273800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-272400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,37 +3335,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-101500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-762700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-411000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-789100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,33 +3399,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1585600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-249000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-254000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>481600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,165 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E7" s="2">
         <v>44086</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43715</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43631</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43519</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43435</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15408900</v>
+      </c>
+      <c r="E8" s="3">
         <v>15757600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22751600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15436800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14103200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14176700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18738400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14016600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13840400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10900300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11182700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15980100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11018800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10108100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10235200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13498800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9957900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9988000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4508600</v>
+      </c>
+      <c r="E10" s="3">
         <v>4574900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6771500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4418000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3995100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3941500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5239600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4058700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3852400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +904,69 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E14" s="3">
         <v>49100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>123000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>61700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>325100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +988,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15159000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15244700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21779800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15155800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13896600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13617400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18459600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13727400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13675500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E18" s="3">
         <v>512900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>971800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>281000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>206600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>559300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>278800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>289200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,168 +1073,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E20" s="3">
         <v>11400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-50400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E21" s="3">
         <v>873000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1428800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>640000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>606800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>935900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>805800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>703300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>594800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E22" s="3">
         <v>128600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>180600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>140500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>154800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>177500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>225200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>168300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E23" s="3">
         <v>395700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>788100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>90100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>67700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>376700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>137000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E24" s="3">
         <v>111200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>201900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>81900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,72 +1281,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E26" s="3">
         <v>284500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>586200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>54800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>294800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>139000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E27" s="3">
         <v>284500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>586200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>54800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>294800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>139000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,17 +1412,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>60300</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,72 +1491,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>50400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E33" s="3">
         <v>284500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>586200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>54800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>294800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,77 +1596,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E35" s="3">
         <v>284500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>586200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>54800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>294800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E38" s="2">
         <v>44086</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44002</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43715</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43631</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43519</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43435</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,40 +1703,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1836100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2389600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2022200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>470700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>406400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>435300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>662100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>926100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>462600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,136 +1771,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>549500</v>
+      </c>
+      <c r="E43" s="3">
         <v>547100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>530000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>525300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>501200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>518600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>497400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>586200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>566900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4638000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4267100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4271600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4352500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4624200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4340300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4385400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4332800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4639500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>420600</v>
+      </c>
+      <c r="E45" s="3">
         <v>374800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>309000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>382800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>447800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>336400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>361900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>404900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>443600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7444200</v>
+      </c>
+      <c r="E46" s="3">
         <v>7578600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7132800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5731300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5979600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5630600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5906800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6250000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6112600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,72 +1946,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14829300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14879200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14875500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15079300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15058100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15063100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14943500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9861300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10143300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3259700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3261100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3268800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3270500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3307200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3361200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3454500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4017800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4076600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,40 +2086,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E52" s="3">
         <v>750700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>710700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>654000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>646700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>643600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>676400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>647500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>649200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,40 +2156,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26319300</v>
+      </c>
+      <c r="E54" s="3">
         <v>26469600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25987800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24735100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24991600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24698500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24981200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20776600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20981700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,200 +2223,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3395000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3389800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3399800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2891100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3183200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2946600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3077900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2918700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3119200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E58" s="3">
         <v>331600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>219100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>221400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>133300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>117100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>145000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>148800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>412600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2989900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3006300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3131400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2791800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2655700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2666000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2491900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2085200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2008900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6597300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6727700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6750300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5904300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5972200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5729700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5714800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5152700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5540700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8328000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8460000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8484500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8493300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8615900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8628600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9688600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10437600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10565300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8420200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8181200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7959000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8059400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7992900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7994700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7523400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3735600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3485600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,40 +2536,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23345500</v>
+      </c>
+      <c r="E66" s="3">
         <v>23368900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23193800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22457000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22581000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22353000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22926800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19325900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19591600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +2671,7 @@
         <v>1599100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,40 +2726,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1481400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1432200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1174600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>592300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>524500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>469700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>174900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-431800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-567700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,40 +2866,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1374700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1501600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1194900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2278100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2410600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2345500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2054400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1450700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1390100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,77 +2936,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E80" s="2">
         <v>44086</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44002</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43715</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43631</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43519</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43435</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E81" s="3">
         <v>284500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>586200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>54800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>294800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,40 +3028,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E83" s="3">
         <v>348700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>460100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>409400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>384300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>381700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>515900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>398000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>401600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,40 +3236,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E89" s="3">
         <v>628900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2091900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>516900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>302200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>282100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>802700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>618800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-122200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,40 +3288,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-380100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-402300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-391400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-367400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-354200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-362100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-445700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-285700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,40 +3391,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-287700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-399400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-353100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-333100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>601700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-294000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>273800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-272400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,40 +3581,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-563200</v>
+      </c>
+      <c r="E100" s="3">
         <v>26200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-101500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-762700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-411000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-789100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,36 +3651,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-545200</v>
+      </c>
+      <c r="E102" s="3">
         <v>367400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1585600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-249000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-254000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>481600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E7" s="2">
         <v>44170</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44086</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43715</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43631</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43519</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43435</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15772300</v>
+      </c>
+      <c r="E8" s="3">
         <v>15408900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15757600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22751600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15436800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14103200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14176700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18738400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14016600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13840400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11212800</v>
+      </c>
+      <c r="E9" s="3">
         <v>10900300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11182700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15980100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11018800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10108100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10235200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13498800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9957900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9988000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4559500</v>
+      </c>
+      <c r="E10" s="3">
         <v>4508600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4574900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6771500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4418000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3995100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3941500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5239600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4058700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3852400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,51 +923,57 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E14" s="3">
         <v>12500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>123000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>61700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>42700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>324500</v>
+      </c>
+      <c r="E15" s="3">
         <v>325100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -968,8 +990,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -977,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1014,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15974700</v>
+      </c>
+      <c r="E17" s="3">
         <v>15159000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15244700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21779800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15155800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13896600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13617400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18459600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13727400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13675500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-202400</v>
+      </c>
+      <c r="E18" s="3">
         <v>249900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>512900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>971800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>281000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>206600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>559300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>278800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>164900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,183 +1106,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E20" s="3">
         <v>19200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-50400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E21" s="3">
         <v>632000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>873000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1428800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>640000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>606800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>935900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>805800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>703300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>594800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E22" s="3">
         <v>115900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>128600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>180600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>140500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>154800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>177500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>225200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>168300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>213000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-208300</v>
+      </c>
+      <c r="E23" s="3">
         <v>153200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>395700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>788100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>90100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>67700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>376700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E24" s="3">
         <v>29500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>111200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>201900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>81900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1332,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E26" s="3">
         <v>123700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>284500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>586200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>54800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>294800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>139000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E27" s="3">
         <v>123700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>284500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>586200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>54800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>294800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>139000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1415,17 +1475,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>60300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,78 +1560,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>50400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E33" s="3">
         <v>123700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>284500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>586200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>54800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>294800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1674,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E35" s="3">
         <v>123700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>284500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>586200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>54800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>294800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E38" s="2">
         <v>44170</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44086</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44002</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43715</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43631</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43519</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43435</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,43 +1789,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1836100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2389600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2022200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>470700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>406400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>435300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>662100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>926100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>462600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,148 +1863,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>550900</v>
+      </c>
+      <c r="E43" s="3">
         <v>549500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>547100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>530000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>525300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>501200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>518600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>497400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>586200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>566900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4301300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4638000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4267100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4271600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4352500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4624200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4340300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4385400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4332800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4639500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>418800</v>
+      </c>
+      <c r="E45" s="3">
         <v>420600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>374800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>309000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>382800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>447800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>336400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>361900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>404900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>443600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6988000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7444200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7578600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7132800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5731300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5979600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5630600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5906800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6250000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6112600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,78 +2053,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15428300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14829300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14879200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14875500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15079300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15058100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15063100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14943500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9861300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10143300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3292100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3259700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3261100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3268800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3270500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3307200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3361200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3454500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4017800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4076600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,43 +2205,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>889600</v>
+      </c>
+      <c r="E52" s="3">
         <v>786100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>750700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>710700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>654000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>646700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>643600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>676400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>647500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>649200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,43 +2281,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26598000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26319300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26469600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25987800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24735100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24991600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24698500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24981200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20776600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20981700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,43 +2353,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3487300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3395000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3389800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3399800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2891100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3183200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2946600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3077900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2918700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3119200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2268,174 +2401,189 @@
         <v>212400</v>
       </c>
       <c r="E58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="F58" s="3">
         <v>331600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>219100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>221400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>133300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>117100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>145000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>148800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>412600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3132500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2989900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3006300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3131400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2791800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2655700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2666000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2491900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2085200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2008900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6832200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6597300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6727700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6750300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5904300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5972200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5729700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5714800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5152700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5540700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8101200</v>
+      </c>
+      <c r="E61" s="3">
         <v>8328000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8460000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8484500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8493300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8615900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8628600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9688600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10437600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10565300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8741200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8420200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8181200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7959000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8059400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7992900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7994700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7523400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3735600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3485600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,43 +2693,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23674600</v>
+      </c>
+      <c r="E66" s="3">
         <v>23345500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23368900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23193800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22457000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22353000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22926800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19325900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19591600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2841,7 @@
         <v>1599100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2694,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,43 +2899,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1481400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1432200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1174600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>592300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>524500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>469700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>174900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-431800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-567700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,43 +3051,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1324300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1374700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1501600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1194900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2278100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2410600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2345500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2054400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1450700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1390100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3127,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E80" s="2">
         <v>44170</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44086</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44002</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43715</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43631</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43519</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43435</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E81" s="3">
         <v>123700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>284500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>586200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>54800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>294800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,43 +3226,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>365200</v>
+      </c>
+      <c r="E83" s="3">
         <v>362900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>348700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>460100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>409400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>384300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>381700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>515900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>398000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>401600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,43 +3452,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>906500</v>
+      </c>
+      <c r="E89" s="3">
         <v>275200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>628900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2091900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>516900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>302200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>282100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>802700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>618800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-122200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,43 +3508,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-547200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-380100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-402300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-391400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-367400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-354200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-362100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-445700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-285700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,43 +3620,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-627700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-257200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-287700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-399400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-353100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-333100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>601700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-294000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>273800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-272400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,13 +3676,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-46400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3479,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,43 +3826,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-397900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-563200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-101500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-762700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-411000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-789100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,39 +3902,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-545200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>367400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1585600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-249000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-254000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>481600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E7" s="2">
         <v>44254</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44170</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44086</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43715</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43631</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43519</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43435</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21269400</v>
+      </c>
+      <c r="E8" s="3">
         <v>15772300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15408900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15757600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22751600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15436800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14103200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14176700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18738400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14016600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13840400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15078400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11212800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10900300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11182700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15980100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11018800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10108100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10235200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13498800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9957900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9988000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6191000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4559500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4508600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4574900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6771500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4418000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3995100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3941500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5239600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4058700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3852400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,57 +942,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>31200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>123000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>61700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>453400</v>
+      </c>
+      <c r="E15" s="3">
         <v>324500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>325100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -993,8 +1015,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1002,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,84 +1040,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20582300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15974700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15159000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15244700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21779800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15155800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13896600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13617400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18459600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13727400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13675500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>687100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-202400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>249900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>512900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>971800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>281000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>206600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>559300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>278800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>164900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,198 +1139,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E20" s="3">
         <v>107200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-50400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1234800</v>
+      </c>
+      <c r="E21" s="3">
         <v>270000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>632000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>873000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1428800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>640000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>606800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>935900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>805800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>703300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>594800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E22" s="3">
         <v>113100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>115900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>128600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>180600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>140500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>154800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>177500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>225200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>168300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>213000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>577300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-208300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>153200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>395700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>788100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>90100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>67700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>376700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-64100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>111200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>201900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>81900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,84 +1383,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-144200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>284500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>586200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>54800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>294800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>139000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-144200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>123700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>284500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>586200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>54800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>294800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,17 +1538,20 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>60300</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,84 +1629,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-107200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>50400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-144200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>123700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>284500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>586200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>54800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>294800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,89 +1752,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-144200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>123700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>284500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>586200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>54800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>294800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E38" s="2">
         <v>44254</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44170</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44086</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44002</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43715</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43631</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43519</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43435</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,46 +1875,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2173800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1717000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1836100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2389600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2022200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>470700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>406400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>435300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>662100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>926100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>462600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,160 +1955,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>618700</v>
+      </c>
+      <c r="E43" s="3">
         <v>550900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>549500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>547100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>530000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>525300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>501200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>518600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>497400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>586200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>566900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4271900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4301300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4638000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4267100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4271600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4352500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4624200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4340300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4385400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4332800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4639500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>313100</v>
+      </c>
+      <c r="E45" s="3">
         <v>418800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>420600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>374800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>309000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>382800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>447800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>336400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>361900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>404900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>443600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7377500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6988000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7444200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7578600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7132800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5731300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5979600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5630600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5906800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6250000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6112600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,84 +2160,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15152400</v>
+      </c>
+      <c r="E48" s="3">
         <v>15428300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14829300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14879200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14875500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15079300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15058100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15063100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14943500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9861300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10143300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3349600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3292100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3259700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3261100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3268800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3270500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3307200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3361200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3454500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4017800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4076600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,46 +2324,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>902400</v>
+      </c>
+      <c r="E52" s="3">
         <v>889600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>786100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>750700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>710700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>654000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>646700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>643600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>676400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>647500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>649200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,46 +2406,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26781900</v>
+      </c>
+      <c r="E54" s="3">
         <v>26598000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26319300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26469600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25987800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24735100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24991600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24698500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24981200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20776600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20981700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,236 +2483,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3386300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3487300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3395000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3389800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3399800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2891100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3183200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2946600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3077900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2918700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3119200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>212400</v>
+        <v>214300</v>
       </c>
       <c r="E58" s="3">
         <v>212400</v>
       </c>
       <c r="F58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="G58" s="3">
         <v>331600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>219100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>221400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>133300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>117100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>145000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>148800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>412600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3103600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3132500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2989900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3006300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3131400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2791800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2655700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2666000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2491900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2085200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2008900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6704200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6832200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6597300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6727700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6750300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5904300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5972200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5729700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5714800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5152700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5540700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8145800</v>
+      </c>
+      <c r="E61" s="3">
         <v>8101200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8328000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8460000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8484500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8493300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8615900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8628600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9688600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10437600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10565300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8634400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8741200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8420200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8181200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7959000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8059400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7992900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7994700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7523400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3735600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3485600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,46 +2850,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23484400</v>
+      </c>
+      <c r="E66" s="3">
         <v>23674600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23345500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23368900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23193800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22457000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22581000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22353000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22926800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19325900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19591600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,7 +3011,7 @@
         <v>1599100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2864,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,46 +3072,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1624800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1263000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1481400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1432200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1174600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>592300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>524500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>469700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>174900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-431800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-567700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,46 +3236,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1698400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1324300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1374700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1501600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1194900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2278100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2410600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2345500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2054400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1450700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1390100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,89 +3318,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E80" s="2">
         <v>44254</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44170</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44086</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44002</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43715</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43631</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43519</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43435</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-144200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>123700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>284500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>586200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>54800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>294800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,46 +3424,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>504200</v>
+      </c>
+      <c r="E83" s="3">
         <v>365200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>362900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>348700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>460100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>409400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>384300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>381700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>515900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>398000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>401600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,46 +3668,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="E89" s="3">
         <v>906500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>275200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>628900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2091900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>516900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>302200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>282100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>802700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>618800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-122200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,46 +3728,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-513400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-547200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-380100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-402300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-391400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-367400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-354200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-362100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-445700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-285700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,46 +3849,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-627700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-257200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-287700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-399400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-353100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-333100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>601700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-294000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>273800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-272400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,17 +3909,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-46400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3715,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,46 +4071,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-397900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-563200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-101500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-762700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-411000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-789100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,42 +4153,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>456800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-119100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-545200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>367400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1585600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>62300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-249000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-254000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>481600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,202 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44450</v>
+      </c>
+      <c r="E7" s="2">
         <v>44366</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44170</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44086</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44002</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43715</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43631</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43519</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43435</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16505700</v>
+      </c>
+      <c r="E8" s="3">
         <v>21269400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15772300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15408900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15757600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22751600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15436800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14103200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14176700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18738400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14016600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13840400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11788700</v>
+      </c>
+      <c r="E9" s="3">
         <v>15078400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11212800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10900300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11182700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15980100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11018800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10108100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10235200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13498800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9957900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9988000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4717000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6191000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4559500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4508600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4574900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6771500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4418000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3995100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3941500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5239600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4058700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3852400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +876,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,63 +962,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>49100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>123000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>61700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E15" s="3">
         <v>453400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>324500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>325100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1018,8 +1041,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1027,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,90 +1067,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16019800</v>
+      </c>
+      <c r="E17" s="3">
         <v>20582300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15974700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15159000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15244700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21779800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15155800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13896600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13617400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18459600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13727400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13675500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E18" s="3">
         <v>687100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-202400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>249900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>512900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>971800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>281000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>206600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>559300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>278800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>289200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>164900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,213 +1173,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E20" s="3">
         <v>43500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>107200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-50400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>883800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1234800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>270000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>632000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>873000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1428800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>640000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>606800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>935900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>805800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>703300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>594800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E22" s="3">
         <v>153300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>113100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>115900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>128600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>180600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>140500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>154800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>177500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>225200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>168300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>213000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>395500</v>
+      </c>
+      <c r="E23" s="3">
         <v>577300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-208300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>153200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>395700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>788100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>90100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>67700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>376700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>137000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E24" s="3">
         <v>132500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-64100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>111200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>201900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,90 +1435,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E26" s="3">
         <v>444800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-144200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>284500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>586200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>54800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>294800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>139000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E27" s="3">
         <v>444800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-144200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>123700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>284500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>586200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>54800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>294800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>139000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1541,17 +1602,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>60300</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,90 +1699,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-43500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-107200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>50400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E33" s="3">
         <v>444800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-144200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>123700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>284500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>586200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>294800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,95 +1831,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E35" s="3">
         <v>444800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-144200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>123700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>284500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>586200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>294800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44450</v>
+      </c>
+      <c r="E38" s="2">
         <v>44366</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44254</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44170</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44086</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44002</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43715</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43631</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43519</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43435</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,49 +1962,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2849800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2173800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1717000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1836100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2389600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2022200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>470700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>406400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>435300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>662100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>926100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>462600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,172 +2048,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>544700</v>
+      </c>
+      <c r="E43" s="3">
         <v>618700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>550900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>549500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>547100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>530000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>525300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>501200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>518600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>497400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>586200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>566900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4179100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4271900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4301300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4638000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4267100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4271600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4352500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4624200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4340300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4385400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4332800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4639500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E45" s="3">
         <v>313100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>418800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>420600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>374800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>309000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>382800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>447800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>336400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>361900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>404900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>443600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7988300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7377500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6988000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7444200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7578600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7132800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5731300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5979600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5630600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5906800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6250000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6112600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,90 +2268,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15062400</v>
+      </c>
+      <c r="E48" s="3">
         <v>15152400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15428300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14829300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14879200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14875500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15079300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15058100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15063100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14943500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9861300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10143300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3381500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3349600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3292100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3259700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3261100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3268800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3270500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3307200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3361200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3454500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4017800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4076600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,49 +2444,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>912100</v>
+      </c>
+      <c r="E52" s="3">
         <v>902400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>889600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>786100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>750700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>710700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>654000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>646700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>643600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>676400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>647500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>649200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,49 +2532,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27344300</v>
+      </c>
+      <c r="E54" s="3">
         <v>26781900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26598000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26319300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26469600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25987800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24735100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24991600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24698500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24981200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20776600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20981700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,254 +2614,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3554200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3386300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3487300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3395000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3389800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3399800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2891100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3183200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2946600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3077900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2918700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3119200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E58" s="3">
         <v>214300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>212400</v>
       </c>
       <c r="F58" s="3">
         <v>212400</v>
       </c>
       <c r="G58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="H58" s="3">
         <v>331600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>219100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>221400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>133300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>117100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>145000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>148800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>412600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3304000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3103600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3132500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2989900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3006300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3131400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2791800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2655700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2666000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2491900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2085200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2008900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7069700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6704200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6832200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6597300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6727700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6750300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5904300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5972200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5729700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5714800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5152700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5540700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8129100</v>
+      </c>
+      <c r="E61" s="3">
         <v>8145800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8101200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8328000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8460000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8484500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8493300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8615900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8628600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9688600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10437600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10565300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8586500</v>
+      </c>
+      <c r="E62" s="3">
         <v>8634400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8741200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8420200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8181200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7959000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8059400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7992900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7994700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7523400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3735600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3485600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,49 +3008,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23785300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23484400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23674600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23345500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23368900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23193800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22457000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22581000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22353000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22926800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19325900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19591600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,7 +3182,7 @@
         <v>1599100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,49 +3246,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1846200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1624800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1263000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1481400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1432200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1174600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>592300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>524500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>469700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>174900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-431800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-567700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,49 +3422,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1959900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1698400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1324300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1374700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1501600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1194900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2278100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2410600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2345500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2054400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1450700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1390100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,95 +3510,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44450</v>
+      </c>
+      <c r="E80" s="2">
         <v>44366</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44254</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44170</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44086</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44002</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43715</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43631</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43519</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43435</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E81" s="3">
         <v>444800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-144200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>123700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>284500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>586200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>294800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,49 +3623,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E83" s="3">
         <v>504200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>365200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>362900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>348700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>460100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>409400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>384300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>381700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>515900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>398000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>401600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,49 +3885,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1078700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1059000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>906500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>275200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>628900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2091900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>516900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>302200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>282100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>802700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>618800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-122200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,49 +3949,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-309100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-513400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-547200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-380100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-402300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-391400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-367400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-354200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-362100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-445700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-285700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,49 +4079,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-297500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-493000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-627700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-257200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-287700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-399400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-353100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-333100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>601700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-294000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>273800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3919,11 +4153,11 @@
         <v>-46500</v>
       </c>
       <c r="E96" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-46400</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,49 +4317,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-109200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-397900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-563200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-101500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-762700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-411000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-789100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,45 +4405,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E102" s="3">
         <v>456800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-119100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-545200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>367400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1585600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>62300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-249000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-254000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>481600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,202 +665,215 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44534</v>
+      </c>
+      <c r="E7" s="2">
         <v>44450</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44366</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44254</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44170</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44086</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43715</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43631</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43519</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43435</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16728400</v>
+      </c>
+      <c r="E8" s="3">
         <v>16505700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21269400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15772300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15408900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15757600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22751600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15436800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14103200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14176700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18738400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14016600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13840400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11898300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11788700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15078400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11212800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10900300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11182700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15980100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11018800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10108100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10235200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13498800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9957900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9988000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4830100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4717000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6191000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4559500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4508600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4574900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6771500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4418000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3995100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3941500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5239600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4058700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3852400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,69 +982,75 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>49100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>66700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>61700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E15" s="3">
         <v>343000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>453400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>324500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>325100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1044,8 +1067,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,96 +1094,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16132500</v>
+      </c>
+      <c r="E17" s="3">
         <v>16019800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20582300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15974700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15159000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15244700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21779800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15155800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13896600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13617400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18459600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13727400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13675500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>595900</v>
+      </c>
+      <c r="E18" s="3">
         <v>485900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>687100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-202400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>249900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>512900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>971800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>281000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>206600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>559300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>278800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>289200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>164900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,228 +1207,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E20" s="3">
         <v>18900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>43500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>107200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-50400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="E21" s="3">
         <v>883800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1234800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>270000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>632000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>873000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1428800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>640000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>606800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>935900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>805800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>703300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>594800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E22" s="3">
         <v>109300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>153300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>113100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>115900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>128600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>180600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>140500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>154800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>177500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>225200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>168300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>213000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>522900</v>
+      </c>
+      <c r="E23" s="3">
         <v>395500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>577300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-208300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>153200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>395700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>788100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>90100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>67700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>376700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>64700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>137000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>132500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-64100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>111200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>201900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,96 +1487,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E26" s="3">
         <v>295200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>444800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-144200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>284500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>586200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>294800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>139000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E27" s="3">
         <v>295200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>444800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-144200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>123700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>284500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>586200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>294800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>139000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1605,17 +1666,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>60300</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,96 +1769,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-43500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-107200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>50400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E33" s="3">
         <v>295200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>444800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-144200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>123700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>284500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>586200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>294800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,101 +1910,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E35" s="3">
         <v>295200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>444800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-144200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>123700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>284500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>586200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>294800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44534</v>
+      </c>
+      <c r="E38" s="2">
         <v>44450</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44366</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44254</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44170</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44086</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44002</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43715</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43631</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43519</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43435</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,52 +2049,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2661000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2849800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2173800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1717000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1836100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2389600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2022200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>470700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>406400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>435300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>662100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>926100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>462600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,184 +2141,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>607400</v>
+      </c>
+      <c r="E43" s="3">
         <v>544700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>618700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>550900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>549500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>547100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>530000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>525300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>501200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>518600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>497400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>586200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>566900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4671000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4179100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4271900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4301300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4638000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4267100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4271600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4352500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4624200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4340300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4385400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4332800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4639500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>440300</v>
+      </c>
+      <c r="E45" s="3">
         <v>414700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>313100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>418800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>420600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>374800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>309000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>382800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>447800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>336400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>361900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>404900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>443600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8379700</v>
+      </c>
+      <c r="E46" s="3">
         <v>7988300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7377500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6988000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7444200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7578600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7132800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5731300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5979600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5630600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5906800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6250000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6112600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,96 +2376,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15172200</v>
+      </c>
+      <c r="E48" s="3">
         <v>15062400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15152400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15428300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14829300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14879200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14875500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15079300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15058100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15063100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14943500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9861300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10143300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3440500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3381500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3349600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3292100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3259700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3261100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3268800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3270500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3307200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3361200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3454500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4017800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4076600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,52 +2564,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>943700</v>
+      </c>
+      <c r="E52" s="3">
         <v>912100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>902400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>889600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>786100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>750700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>710700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>654000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>646700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>643600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>676400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>647500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>649200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,52 +2658,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27936100</v>
+      </c>
+      <c r="E54" s="3">
         <v>27344300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26781900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26598000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26319300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26469600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25987800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24735100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24991600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24698500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24981200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20776600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20981700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,272 +2745,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4066100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3554200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3386300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3487300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3395000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3389800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3399800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2891100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3183200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2946600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3077900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2918700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3119200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E58" s="3">
         <v>211500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>214300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>212400</v>
       </c>
       <c r="G58" s="3">
         <v>212400</v>
       </c>
       <c r="H58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="I58" s="3">
         <v>331600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>219100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>221400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>133300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>117100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>145000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>148800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>412600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3313100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3304000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3103600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3132500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2989900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3006300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3131400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2791800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2655700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2666000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2491900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2085200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2008900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7461200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7069700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6704200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6832200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6597300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6727700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6750300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5904300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5972200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5729700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5714800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5152700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5540700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7915700</v>
+      </c>
+      <c r="E61" s="3">
         <v>8129100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8145800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8101200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8328000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8484500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8493300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8615900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8628600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9688600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10437600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10565300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8649400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8586500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8634400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8741200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8420200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8181200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7959000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8059400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7992900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7994700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7523400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3735600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3485600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,52 +3166,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24026300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23785300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23484400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23674600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23345500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23368900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23193800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22457000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22581000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22353000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22926800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19325900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19591600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,7 +3353,7 @@
         <v>1599100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,52 +3420,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2187100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1846200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1624800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1263000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1481400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1432200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1174600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>592300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>524500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>469700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>174900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-431800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-567700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,52 +3608,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2310700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1959900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1698400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1324300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1374700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1501600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1194900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2278100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2410600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2345500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2054400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1450700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1390100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,101 +3702,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44534</v>
+      </c>
+      <c r="E80" s="2">
         <v>44450</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44366</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44254</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44170</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44086</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44002</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43715</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43631</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43519</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43435</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E81" s="3">
         <v>295200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>444800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-144200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>123700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>284500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>586200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>294800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,52 +3822,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E83" s="3">
         <v>379000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>504200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>365200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>362900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>348700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>460100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>409400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>384300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>381700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>515900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>398000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>401600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,52 +4102,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>645100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1078700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1059000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>906500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>275200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>628900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2091900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>516900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>302200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>282100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>802700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>618800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-122200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,52 +4170,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-393900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-309100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-513400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-547200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-380100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-402300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-391400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-367400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-354200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-362100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-445700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-285700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,52 +4309,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-386600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-297500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-493000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-627700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-257200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-287700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-399400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-353100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-333100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>601700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-294000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>273800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-272400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,23 +4377,24 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46500</v>
+        <v>-56000</v>
       </c>
       <c r="E96" s="3">
         <v>-46500</v>
       </c>
       <c r="F96" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-46400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,52 +4563,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-447300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-109200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-397900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-563200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-101500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-762700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-411000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-789100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,48 +4657,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-188800</v>
+      </c>
+      <c r="E102" s="3">
         <v>676000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>456800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-119100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-545200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>367400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1585600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>62300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-249000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-254000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>481600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,215 +665,227 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E7" s="2">
         <v>44534</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44450</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44366</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44254</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44170</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44086</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44002</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43715</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43631</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43519</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43435</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17383500</v>
+      </c>
+      <c r="E8" s="3">
         <v>16728400</v>
       </c>
-      <c r="E8" s="3">
-        <v>16505700</v>
-      </c>
       <c r="F8" s="3">
+        <v>37775100</v>
+      </c>
+      <c r="G8" s="3">
         <v>21269400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15772300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15408900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15757600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22751600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15436800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14103200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14176700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18738400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14016600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13840400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12399200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11898300</v>
       </c>
-      <c r="E9" s="3">
-        <v>11788700</v>
-      </c>
       <c r="F9" s="3">
+        <v>26867100</v>
+      </c>
+      <c r="G9" s="3">
         <v>15078400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11212800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10900300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11182700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15980100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11018800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10108100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10235200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13498800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9957900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9988000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4984300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4830100</v>
       </c>
-      <c r="E10" s="3">
-        <v>4717000</v>
-      </c>
       <c r="F10" s="3">
+        <v>10908000</v>
+      </c>
+      <c r="G10" s="3">
         <v>6191000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4559500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4508600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4574900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6771500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4418000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3995100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3941500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5239600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4058700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3852400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +903,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,75 +1001,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>31200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>49100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>66700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>61700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E15" s="3">
         <v>351200</v>
       </c>
-      <c r="E15" s="3">
-        <v>343000</v>
-      </c>
       <c r="F15" s="3">
+        <v>796400</v>
+      </c>
+      <c r="G15" s="3">
         <v>453400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>324500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>325100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1070,8 +1092,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1079,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1120,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16719200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16132500</v>
       </c>
-      <c r="E17" s="3">
-        <v>16019800</v>
-      </c>
       <c r="F17" s="3">
+        <v>36602100</v>
+      </c>
+      <c r="G17" s="3">
         <v>20582300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15974700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15159000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15244700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21779800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15155800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13896600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13617400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18459600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13727400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13675500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>664300</v>
+      </c>
+      <c r="E18" s="3">
         <v>595900</v>
       </c>
-      <c r="E18" s="3">
-        <v>485900</v>
-      </c>
       <c r="F18" s="3">
+        <v>1173000</v>
+      </c>
+      <c r="G18" s="3">
         <v>687100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-202400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>249900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>512900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>971800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>281000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>206600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>559300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>278800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>289200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>164900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,243 +1240,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E20" s="3">
         <v>38300</v>
       </c>
-      <c r="E20" s="3">
-        <v>18900</v>
-      </c>
       <c r="F20" s="3">
+        <v>62400</v>
+      </c>
+      <c r="G20" s="3">
         <v>43500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>107200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1119900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1024200</v>
       </c>
-      <c r="E21" s="3">
-        <v>883800</v>
-      </c>
       <c r="F21" s="3">
+        <v>2118600</v>
+      </c>
+      <c r="G21" s="3">
         <v>1234800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>270000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>632000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>873000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1428800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>640000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>606800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>935900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>805800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>703300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>594800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E22" s="3">
         <v>111300</v>
       </c>
-      <c r="E22" s="3">
-        <v>109300</v>
-      </c>
       <c r="F22" s="3">
+        <v>262600</v>
+      </c>
+      <c r="G22" s="3">
         <v>153300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>113100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>115900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>128600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>180600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>140500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>154800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>177500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>225200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>168300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>213000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>603800</v>
+      </c>
+      <c r="E23" s="3">
         <v>522900</v>
       </c>
-      <c r="E23" s="3">
-        <v>395500</v>
-      </c>
       <c r="F23" s="3">
+        <v>972800</v>
+      </c>
+      <c r="G23" s="3">
         <v>577300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-208300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>153200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>395700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>788100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>67700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>376700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>137000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E24" s="3">
         <v>98400</v>
       </c>
-      <c r="E24" s="3">
-        <v>100300</v>
-      </c>
       <c r="F24" s="3">
+        <v>232800</v>
+      </c>
+      <c r="G24" s="3">
         <v>132500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-64100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>111200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>201900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,102 +1538,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>455100</v>
+      </c>
+      <c r="E26" s="3">
         <v>424500</v>
       </c>
-      <c r="E26" s="3">
-        <v>295200</v>
-      </c>
       <c r="F26" s="3">
+        <v>740000</v>
+      </c>
+      <c r="G26" s="3">
         <v>444800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-144200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>123700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>284500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>586200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>294800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>49000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>139000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>424500</v>
+        <v>365800</v>
       </c>
       <c r="E27" s="3">
-        <v>295200</v>
+        <v>363100</v>
       </c>
       <c r="F27" s="3">
-        <v>444800</v>
+        <v>555100</v>
       </c>
       <c r="G27" s="3">
+        <v>335200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-144200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>123700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>284500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>586200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>294800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>139000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1669,17 +1729,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>60300</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,102 +1838,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-38300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-18900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-43500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-107200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>424500</v>
+        <v>365800</v>
       </c>
       <c r="E33" s="3">
-        <v>295200</v>
+        <v>363100</v>
       </c>
       <c r="F33" s="3">
-        <v>444800</v>
+        <v>555100</v>
       </c>
       <c r="G33" s="3">
+        <v>335200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-144200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>123700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>284500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>586200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>294800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>135600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,107 +1988,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>424500</v>
+        <v>365800</v>
       </c>
       <c r="E35" s="3">
-        <v>295200</v>
+        <v>363100</v>
       </c>
       <c r="F35" s="3">
-        <v>444800</v>
+        <v>555100</v>
       </c>
       <c r="G35" s="3">
+        <v>335200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-144200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>123700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>284500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>586200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>294800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>135600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E38" s="2">
         <v>44534</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44450</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44366</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44254</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44170</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44086</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44002</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43715</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43631</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43519</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43435</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,55 +2135,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2902000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2661000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2849800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2173800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1717000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1836100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2389600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2022200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>470700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>406400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>435300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>662100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>926100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>462600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,196 +2233,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>560600</v>
+      </c>
+      <c r="E43" s="3">
         <v>607400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>544700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>618700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>550900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>549500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>547100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>530000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>525300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>501200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>518600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>497400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>586200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>566900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4671000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4179100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4271900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4301300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4638000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4267100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4271600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4352500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4624200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4340300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4385400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4332800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4639500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E45" s="3">
         <v>440300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>414700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>313100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>418800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>420600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>374800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>309000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>382800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>447800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>336400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>361900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>404900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>443600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8366400</v>
+      </c>
+      <c r="E46" s="3">
         <v>8379700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7988300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7377500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6988000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7444200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7578600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7132800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5731300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5979600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5630600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5906800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6250000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6112600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,102 +2483,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15258000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15172200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15062400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15152400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15428300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14829300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14879200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14875500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15079300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15058100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15063100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14943500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9861300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10143300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3440500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3381500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3349600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3292100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3259700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3261100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3268800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3270500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3307200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3361200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3454500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4017800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4076600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,55 +2683,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1012600</v>
+      </c>
+      <c r="E52" s="3">
         <v>943700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>912100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>902400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>889600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>786100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>750700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>710700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>654000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>646700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>643600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>676400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>647500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>649200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,55 +2783,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28123000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27936100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27344300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26781900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26598000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26319300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26469600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25987800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24735100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24991600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24698500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24981200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20776600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20981700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,290 +2875,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4236800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4066100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3554200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3386300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3487300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3395000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3389800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3399800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2891100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3183200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2946600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3077900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2918700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3119200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>828800</v>
+      </c>
+      <c r="E58" s="3">
         <v>82000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>211500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>214300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>212400</v>
       </c>
       <c r="H58" s="3">
         <v>212400</v>
       </c>
       <c r="I58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="J58" s="3">
         <v>331600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>219100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>221400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>133300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>117100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>145000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>148800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>412600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3282900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3313100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3304000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3103600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3132500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2989900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3006300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3131400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2791800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2655700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2666000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2491900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2085200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2008900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8348500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7461200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7069700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6704200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6832200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6597300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6727700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6750300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5904300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5972200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5729700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5714800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5152700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5540700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7136300</v>
+      </c>
+      <c r="E61" s="3">
         <v>7915700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8129100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8145800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8101200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8328000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8460000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8484500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8493300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8615900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8628600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9688600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10437600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10565300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8335100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8649400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8586500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8634400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8741200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8420200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8181200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7959000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8059400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7992900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7994700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7523400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3735600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3485600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,55 +3323,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23819900</v>
+      </c>
+      <c r="E66" s="3">
         <v>24026300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23785300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23484400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23674600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23345500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23368900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23193800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22457000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22581000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22353000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22926800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19325900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19591600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,13 +3493,16 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1599100</v>
+        <v>1278500</v>
       </c>
       <c r="E70" s="3">
         <v>1599100</v>
@@ -3356,7 +3523,7 @@
         <v>1599100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3376,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,55 +3593,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2564900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2187100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1846200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1624800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1263000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1481400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1432200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1174600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>592300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>524500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>469700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>174900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-431800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-567700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,55 +3793,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3024600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2310700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1959900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1698400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1324300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1374700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1501600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1194900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2278100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2410600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2345500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2054400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1450700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1390100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,107 +3893,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E80" s="2">
         <v>44534</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44450</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44366</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44254</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44170</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44086</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44002</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43715</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43631</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43519</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43435</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>424500</v>
+        <v>365800</v>
       </c>
       <c r="E81" s="3">
-        <v>295200</v>
+        <v>363100</v>
       </c>
       <c r="F81" s="3">
-        <v>444800</v>
+        <v>555100</v>
       </c>
       <c r="G81" s="3">
+        <v>335200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-144200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>123700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>284500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>586200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>294800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>135600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,55 +4020,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>408100</v>
+      </c>
+      <c r="E83" s="3">
         <v>390000</v>
       </c>
-      <c r="E83" s="3">
-        <v>379000</v>
-      </c>
       <c r="F83" s="3">
+        <v>883200</v>
+      </c>
+      <c r="G83" s="3">
         <v>504200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>365200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>362900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>348700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>460100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>409400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>384300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>381700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>515900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>398000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>401600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,55 +4318,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>730600</v>
+      </c>
+      <c r="E89" s="3">
         <v>645100</v>
       </c>
-      <c r="E89" s="3">
-        <v>1078700</v>
-      </c>
       <c r="F89" s="3">
+        <v>2137700</v>
+      </c>
+      <c r="G89" s="3">
         <v>1059000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>906500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>275200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>628900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2091900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>516900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>302200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>282100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>802700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>618800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-122200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,55 +4390,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-390100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-393900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-309100</v>
-      </c>
       <c r="F91" s="3">
+        <v>-822500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-513400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-547200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-380100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-402300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-391400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-367400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-354200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-362100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-445700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-285700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,55 +4538,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-361800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-386600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-297500</v>
-      </c>
       <c r="F94" s="3">
+        <v>-790500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-493000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-627700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-257200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-287700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-399400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-353100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-333100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>601700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>273800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-272400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,26 +4610,27 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-56000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-46500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-46500</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-46400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4425,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,55 +4808,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-447300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-105200</v>
-      </c>
       <c r="F100" s="3">
+        <v>-214400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-109200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-397900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-563200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>26200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-762700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-411000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-789100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,51 +4908,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-188800</v>
       </c>
-      <c r="E102" s="3">
-        <v>676000</v>
-      </c>
       <c r="F102" s="3">
+        <v>1132800</v>
+      </c>
+      <c r="G102" s="3">
         <v>456800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-119100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-545200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>367400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1585600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-249000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-254000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>481600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,227 +665,239 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44730</v>
+      </c>
+      <c r="E7" s="2">
         <v>44618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44534</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44450</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44366</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44254</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44170</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44086</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44002</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43715</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43631</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43519</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43435</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23310300</v>
+      </c>
+      <c r="E8" s="3">
         <v>17383500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16728400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37775100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21269400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15772300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15408900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15757600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22751600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15436800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14103200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14176700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18738400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14016600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13840400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16765300</v>
+      </c>
+      <c r="E9" s="3">
         <v>12399200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11898300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26867100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15078400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11212800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10900300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11182700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15980100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11018800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10108100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10235200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13498800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9957900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9988000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6545000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4984300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4830100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10908000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6191000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4559500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4508600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4574900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6771500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4418000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3995100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3941500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5239600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4058700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3852400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +916,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +967,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,81 +1020,87 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>31100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>31200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>49100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>66700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>61700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E15" s="3">
         <v>369000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>351200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>796400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>453400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>324500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>325100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1095,8 +1117,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1104,8 +1126,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,108 +1146,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22550200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16719200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16132500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36602100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20582300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15974700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15159000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15244700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21779800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15155800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13896600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13617400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18459600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13727400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13675500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>760100</v>
+      </c>
+      <c r="E18" s="3">
         <v>664300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>595900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1173000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>687100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-202400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>249900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>512900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>971800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>281000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>206600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>559300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>278800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>289200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>164900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,258 +1273,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E20" s="3">
         <v>47500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>38300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>62400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>107200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1314100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1119900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1024200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2118600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1234800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>270000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>632000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>873000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1428800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>640000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>606800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>935900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>805800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>703300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>594800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E22" s="3">
         <v>108000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>111300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>262600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>153300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>113100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>115900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>128600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>140500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>154800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>177500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>225200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>168300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>213000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>627500</v>
+      </c>
+      <c r="E23" s="3">
         <v>603800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>522900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>972800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>577300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-208300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>153200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>395700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>788100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>376700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>137000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E24" s="3">
         <v>148700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>98400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>232800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>132500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-64100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>111200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>201900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>81900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,108 +1589,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>484200</v>
+      </c>
+      <c r="E26" s="3">
         <v>455100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>424500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>740000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>444800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-144200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>284500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>586200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>294800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>139000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E27" s="3">
         <v>365800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>363100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>555100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>335200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-144200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>123700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>284500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>586200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>294800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>139000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,31 +1748,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1732,17 +1792,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>60300</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1854,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,108 +1907,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-47500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-38300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-62400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-43500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-107200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E33" s="3">
         <v>365800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>363100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>555100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>335200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-144200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>123700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>284500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>586200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>294800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>135600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,113 +2066,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E35" s="3">
         <v>365800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>363100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>555100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>335200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-144200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>123700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>284500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>586200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>294800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>135600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44730</v>
+      </c>
+      <c r="E38" s="2">
         <v>44618</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44534</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44450</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44366</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44254</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44170</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44086</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44002</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43715</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43631</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43519</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43435</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2200,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,58 +2221,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3213100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2902000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2661000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2849800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2173800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1717000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1836100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2389600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2022200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>470700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>406400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>435300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>662100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>926100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>462600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,208 +2325,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>565300</v>
+      </c>
+      <c r="E43" s="3">
         <v>560600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>607400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>544700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>618700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>550900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>549500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>547100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>530000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>525300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>501200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>518600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>497400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>586200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>566900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4573200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4671000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4179100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4271900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4301300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4638000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4267100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4271600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4352500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4624200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4340300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4385400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4332800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4639500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E45" s="3">
         <v>403000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>440300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>414700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>313100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>418800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>420600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>374800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>309000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>382800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>447800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>336400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>361900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>404900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>443600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8678200</v>
+      </c>
+      <c r="E46" s="3">
         <v>8366400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8379700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7988300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7377500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6988000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7444200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7578600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7132800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5731300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5979600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5630600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5906800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6250000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6112600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2486,108 +2590,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14978300</v>
+      </c>
+      <c r="E48" s="3">
         <v>15258000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15172200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15062400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15152400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15428300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14829300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14879200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14875500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15079300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15058100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15063100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14943500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9861300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10143300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3510600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3486000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3440500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3381500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3349600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3292100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3259700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3261100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3268800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3270500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3307200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3361200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3454500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4017800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4076600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2749,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,58 +2802,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1012600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>943700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>912100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>902400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>889600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>786100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>750700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>710700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>654000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>646700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>643600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>676400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>647500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>649200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,58 +2908,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28220000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28123000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27936100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27344300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26781900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26598000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26319300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26469600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25987800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24735100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24991600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24698500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24981200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20776600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20981700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2984,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,308 +3005,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3970300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4236800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4066100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3554200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3386300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3487300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3395000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3389800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3399800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2891100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3183200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2946600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3077900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2918700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3119200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>825400</v>
+      </c>
+      <c r="E58" s="3">
         <v>828800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>211500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>214300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>212400</v>
       </c>
       <c r="I58" s="3">
         <v>212400</v>
       </c>
       <c r="J58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K58" s="3">
         <v>331600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>219100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>221400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>133300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>117100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>145000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>148800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>412600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3116600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3282900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3313100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3304000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3103600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3132500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2989900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3006300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3131400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2791800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2655700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2666000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2491900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2085200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2008900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7912300</v>
+      </c>
+      <c r="E60" s="3">
         <v>8348500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7461200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7069700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6704200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6832200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6597300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6727700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6750300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5904300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5972200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5729700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5714800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5152700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5540700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7121200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7136300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7915700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8129100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8145800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8101200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8328000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8460000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8484500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8493300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8615900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8628600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9688600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10437600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10565300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8480500</v>
+      </c>
+      <c r="E62" s="3">
         <v>8335100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8649400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8586500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8634400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8741200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8420200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8181200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7959000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8059400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7992900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7994700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7523400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3735600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3485600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3374,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3427,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,58 +3480,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23514000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23819900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24026300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23785300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23484400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23674600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23345500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23368900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23193800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22457000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22581000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22353000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22926800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19325900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19591600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3556,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3607,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,16 +3660,19 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>635400</v>
+      </c>
+      <c r="E70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1599100</v>
       </c>
       <c r="F70" s="3">
         <v>1599100</v>
@@ -3526,7 +3693,7 @@
         <v>1599100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3546,8 +3713,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,58 +3766,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2972100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2564900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2187100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1846200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1624800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1263000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1481400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1432200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1174600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>592300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>524500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>469700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>174900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-431800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-567700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3872,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3925,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,58 +3978,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4070600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3024600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2310700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1959900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1698400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1324300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1374700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1501600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1194900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2278100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2410600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2345500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2054400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1450700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1390100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,113 +4084,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44730</v>
+      </c>
+      <c r="E80" s="2">
         <v>44618</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44534</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44450</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44366</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44254</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44170</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44086</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44002</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43715</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43631</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43519</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43435</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E81" s="3">
         <v>365800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>363100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>555100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>335200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-144200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>123700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>284500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>586200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>294800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>135600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,58 +4218,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E83" s="3">
         <v>408100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>390000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>883200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>504200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>365200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>362900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>348700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>460100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>409400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>384300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>381700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>515900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>398000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>401600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4322,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4375,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4428,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4481,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,58 +4534,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>991900</v>
+      </c>
+      <c r="E89" s="3">
         <v>730600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>645100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2137700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1059000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>906500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>275200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>628900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2091900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>516900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>302200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>282100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>802700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>618800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-122200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,58 +4610,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-613800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-390100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-393900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-822500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-513400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-547200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-380100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-402300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-391400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-367400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-354200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-362100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-445700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-285700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4714,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,58 +4767,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-551400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-361800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-386600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-790500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-493000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-627700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-257200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-287700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-399400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-353100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-333100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>601700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>273800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-272400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,29 +4843,30 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-58400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-56000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-93000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-46500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-46400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4661,8 +4894,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4947,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5000,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,58 +5053,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-127800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-447300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-214400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-397900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-563200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-101500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-762700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-411000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-789100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4911,54 +5159,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E102" s="3">
         <v>241000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-188800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1132800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>456800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-119100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-545200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>367400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1585600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-249000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-254000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>481600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,239 +665,252 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44814</v>
+      </c>
+      <c r="E7" s="2">
         <v>44730</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44618</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44534</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44450</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44366</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44254</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44170</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44086</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44002</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43715</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43631</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43519</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43435</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17919400</v>
+      </c>
+      <c r="E8" s="3">
         <v>23310300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17383500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16728400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37775100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21269400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15772300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15408900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15757600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22751600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15436800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14103200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14176700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18738400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14016600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13840400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12914800</v>
+      </c>
+      <c r="E9" s="3">
         <v>16765300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12399200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11898300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26867100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15078400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11212800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10900300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11182700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15980100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11018800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10108100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10235200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13498800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9957900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9988000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5004600</v>
+      </c>
+      <c r="E10" s="3">
         <v>6545000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4984300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4830100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10908000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6191000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4559500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4508600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4574900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6771500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4418000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3995100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3941500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5239600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4058700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3852400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,87 +1040,93 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>31100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>31200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>66700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>61700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>42700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>373900</v>
+      </c>
+      <c r="E15" s="3">
         <v>496200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>369000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>351200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>796400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>453400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>324500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>325100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1120,8 +1143,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1129,8 +1152,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1147,114 +1173,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17388400</v>
+      </c>
+      <c r="E17" s="3">
         <v>22550200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16719200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16132500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36602100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20582300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15974700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15159000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15244700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21779800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15155800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13896600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13617400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18459600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13727400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13675500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E18" s="3">
         <v>760100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>664300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>595900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1173000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>687100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-202400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>249900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>512900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>971800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>281000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>206600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>559300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>278800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>289200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>164900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,273 +1307,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E20" s="3">
         <v>6300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>38300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>62400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>43500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>107200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1314100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1119900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1024200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2118600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1234800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>270000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>632000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>873000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1428800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>640000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>606800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>935900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>805800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>703300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>594800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E22" s="3">
         <v>138900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>108000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>111300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>262600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>153300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>113100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>128600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>140500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>154800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>177500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>225200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>168300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>213000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>460100</v>
+      </c>
+      <c r="E23" s="3">
         <v>627500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>603800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>522900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>972800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>577300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-208300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>153200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>395700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>788100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>90100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>376700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>137000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E24" s="3">
         <v>143300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>148700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>98400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>232800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>132500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-64100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>111200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>201900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,114 +1641,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E26" s="3">
         <v>484200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>455100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>424500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>740000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>444800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-144200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>284500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>586200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>294800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>139000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>443600</v>
+        <v>323500</v>
       </c>
       <c r="E27" s="3">
+        <v>426700</v>
+      </c>
+      <c r="F27" s="3">
         <v>365800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>363100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>555100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>335200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-144200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>123700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>284500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>586200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>294800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>139000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,8 +1809,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,8 +1838,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1795,17 +1856,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>60300</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,114 +1977,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-38300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-62400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-43500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-107200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>443600</v>
+        <v>323500</v>
       </c>
       <c r="E33" s="3">
+        <v>426700</v>
+      </c>
+      <c r="F33" s="3">
         <v>365800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>363100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>555100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>335200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-144200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>123700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>284500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>586200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>294800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>135600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2069,119 +2145,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>443600</v>
+        <v>323500</v>
       </c>
       <c r="E35" s="3">
+        <v>426700</v>
+      </c>
+      <c r="F35" s="3">
         <v>365800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>363100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>555100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>335200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-144200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>123700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>284500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>586200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>294800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>135600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44814</v>
+      </c>
+      <c r="E38" s="2">
         <v>44730</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44618</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44534</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44450</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44366</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44254</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44170</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44086</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44002</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43715</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43631</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43519</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43435</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2222,61 +2308,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3392400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3213100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2902000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2661000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2849800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2173800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1717000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1836100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2389600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2022200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>470700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>406400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>435300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>662100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>926100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>462600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,220 +2418,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E43" s="3">
         <v>565300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>560600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>607400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>544700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>618700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>550900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>549500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>547100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>530000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>525300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>501200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>518600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>497400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>586200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>566900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4746400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4573200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4671000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4179100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4271900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4301300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4638000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4267100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4271600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4352500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4624200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4340300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4385400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4332800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4639500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>474100</v>
+      </c>
+      <c r="E45" s="3">
         <v>326600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>403000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>440300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>414700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>313100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>418800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>420600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>374800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>309000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>382800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>447800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>336400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>361900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>404900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>443600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9264600</v>
+      </c>
+      <c r="E46" s="3">
         <v>8678200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8366400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8379700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7988300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7377500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6988000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7444200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7578600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7132800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5731300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5979600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5630600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5906800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6250000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6112600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2593,114 +2698,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14947500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14978300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15258000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15172200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15062400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15152400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15428300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14829300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14879200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14875500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15079300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15058100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15063100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14943500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9861300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10143300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3564500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3510600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3486000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3440500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3381500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3349600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3292100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3259700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3261100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3268800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3270500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3307200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3361200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3454500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4017800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4076600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2752,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2805,61 +2922,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>977500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1052900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1012600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>943700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>912100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>902400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>889600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>786100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>750700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>710700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>654000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>646700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>643600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>676400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>647500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>649200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2911,61 +3034,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28754100</v>
+      </c>
+      <c r="E54" s="3">
         <v>28220000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28123000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27936100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27344300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26781900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26598000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26319300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26469600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25987800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24735100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24991600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24698500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24981200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20776600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20981700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2985,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3006,326 +3136,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4017800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3970300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4236800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4066100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3554200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3386300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3487300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3395000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3389800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3399800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2891100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3183200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2946600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3077900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2918700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3119200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E58" s="3">
         <v>825400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>828800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>82000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>211500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>214300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>212400</v>
       </c>
       <c r="J58" s="3">
         <v>212400</v>
       </c>
       <c r="K58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="L58" s="3">
         <v>331600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>219100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>221400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>133300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>117100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>145000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>148800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>412600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3116600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3282900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3313100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3304000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3103600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3132500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2989900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3006300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3131400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2791800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2655700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2666000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2491900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2085200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2008900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8244500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7912300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8348500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7461200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7069700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6704200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6832200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6597300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6727700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6750300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5904300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5972200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5729700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5714800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5152700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5540700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7106800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7121200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7136300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7915700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8129100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8145800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8101200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8328000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8460000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8484500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8493300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8615900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8628600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9688600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10437600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10565300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8403600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8480500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8335100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8649400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8586500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8634400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8741200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8420200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8181200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7959000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8059400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7992900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7994700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7523400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3735600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3485600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3377,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3430,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3483,61 +3638,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23754900</v>
+      </c>
+      <c r="E66" s="3">
         <v>23514000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23819900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24026300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23785300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23484400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23674600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23345500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23368900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23193800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22457000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22581000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22353000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22926800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19325900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19591600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3557,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3610,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3663,19 +3828,22 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>612200</v>
+      </c>
+      <c r="E70" s="3">
         <v>635400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1599100</v>
       </c>
       <c r="G70" s="3">
         <v>1599100</v>
@@ -3696,7 +3864,7 @@
         <v>1599100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3716,8 +3884,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3769,61 +3940,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3239900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2972100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2564900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2187100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1846200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1624800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1263000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1481400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1432200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1174600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>592300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>524500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>469700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>174900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-431800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-567700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3875,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3928,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3981,61 +4164,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4387000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4070600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3024600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2310700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1959900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1698400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1324300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1374700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1501600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1194900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2278100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2410600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2345500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2054400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1450700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1390100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4087,119 +4276,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44814</v>
+      </c>
+      <c r="E80" s="2">
         <v>44730</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44618</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44534</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44450</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44366</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44254</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44170</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44086</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44002</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43715</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43631</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43519</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43435</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>443600</v>
+        <v>323500</v>
       </c>
       <c r="E81" s="3">
+        <v>426700</v>
+      </c>
+      <c r="F81" s="3">
         <v>365800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>363100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>555100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>335200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-144200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>123700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>284500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>586200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>294800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>135600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4219,61 +4417,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>412100</v>
+      </c>
+      <c r="E83" s="3">
         <v>547700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>408100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>390000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>883200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>504200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>365200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>362900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>348700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>460100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>409400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>384300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>381700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>515900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>398000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>401600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4325,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4378,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4431,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4484,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4537,61 +4751,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>660200</v>
+      </c>
+      <c r="E89" s="3">
         <v>991900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>730600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>645100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2137700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1059000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>906500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>275200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>628900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2091900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>516900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>302200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>282100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>802700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>618800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-122200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4611,61 +4831,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-446900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-613800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-390100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-393900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-822500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-513400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-547200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-380100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-402300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-391400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-367400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-354200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-362100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-445700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-285700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4717,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4770,61 +4997,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-426300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-551400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-361800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-386600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-790500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-493000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-627700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-257200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-287700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-399400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-353100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-333100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>601700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-294000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>273800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-272400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4844,32 +5077,33 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-63000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-58400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-56000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-93000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-46500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4897,8 +5131,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4950,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5003,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5056,61 +5299,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-129500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-127800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-447300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-214400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-397900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-563200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-101500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-762700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-411000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-789100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5162,57 +5411,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E102" s="3">
         <v>311000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>241000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-188800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1132800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>456800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-119100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-545200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>367400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1585600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-249000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-254000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>481600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,252 +665,265 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E7" s="2">
         <v>44814</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44730</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44618</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44534</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44450</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44366</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44254</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44170</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44086</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44002</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43715</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43631</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43519</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43435</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17919400</v>
+        <v>18154900</v>
       </c>
       <c r="E8" s="3">
+        <v>41229700</v>
+      </c>
+      <c r="F8" s="3">
         <v>23310300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17383500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16728400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37775100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21269400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15772300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15408900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15757600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22751600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15436800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14103200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14176700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18738400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14016600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13840400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12914800</v>
+        <v>13033200</v>
       </c>
       <c r="E9" s="3">
+        <v>29680100</v>
+      </c>
+      <c r="F9" s="3">
         <v>16765300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12399200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11898300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26867100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15078400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11212800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10900300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11182700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15980100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11018800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10108100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10235200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13498800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9957900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9988000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5004600</v>
+        <v>5121700</v>
       </c>
       <c r="E10" s="3">
+        <v>11549600</v>
+      </c>
+      <c r="F10" s="3">
         <v>6545000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4984300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4830100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10908000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6191000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4559500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4508600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4574900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6771500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4418000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3995100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3941500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5239600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4058700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3852400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,8 +944,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1001,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,93 +1060,99 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>66500</v>
       </c>
       <c r="F14" s="3">
+        <v>39700</v>
+      </c>
+      <c r="G14" s="3">
         <v>31100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>31200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>66700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>61700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>42700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>373900</v>
+        <v>393300</v>
       </c>
       <c r="E15" s="3">
-        <v>496200</v>
+        <v>897500</v>
       </c>
       <c r="F15" s="3">
+        <v>511600</v>
+      </c>
+      <c r="G15" s="3">
         <v>369000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>351200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>796400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>453400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>324500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>325100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1146,8 +1169,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1155,8 +1178,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,120 +1200,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17388400</v>
+        <v>17572500</v>
       </c>
       <c r="E17" s="3">
+        <v>39938600</v>
+      </c>
+      <c r="F17" s="3">
         <v>22550200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16719200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16132500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36602100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20582300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15974700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15159000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15244700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21779800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15155800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13896600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13617400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18459600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13727400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13675500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>531000</v>
+        <v>582400</v>
       </c>
       <c r="E18" s="3">
+        <v>1291100</v>
+      </c>
+      <c r="F18" s="3">
         <v>760100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>664300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>595900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1173000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>687100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-202400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>249900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>512900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>971800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>281000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>206600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>559300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>278800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>289200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>164900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,288 +1341,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18900</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F20" s="3">
         <v>6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>38300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>62400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>43500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>107200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-50400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>962000</v>
+        <v>1001800</v>
       </c>
       <c r="E21" s="3">
+        <v>2276100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1314100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1119900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1024200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2118600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1234800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>270000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>632000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>873000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1428800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>640000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>606800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>935900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>805800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>703300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>594800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89800</v>
+        <v>84300</v>
       </c>
       <c r="E22" s="3">
+        <v>228700</v>
+      </c>
+      <c r="F22" s="3">
         <v>138900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>108000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>111300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>262600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>153300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>113100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>115900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>128600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>140500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>154800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>177500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>225200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>168300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>213000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>460100</v>
+        <v>496400</v>
       </c>
       <c r="E23" s="3">
+        <v>1087600</v>
+      </c>
+      <c r="F23" s="3">
         <v>627500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>603800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>522900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>972800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>577300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-208300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>153200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>395700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>788100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>90100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>376700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>137000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117400</v>
+        <v>120900</v>
       </c>
       <c r="E24" s="3">
+        <v>260700</v>
+      </c>
+      <c r="F24" s="3">
         <v>143300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>148700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>98400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>232800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>132500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-64100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>111200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>201900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>81900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1693,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>342700</v>
+        <v>375500</v>
       </c>
       <c r="E26" s="3">
+        <v>826900</v>
+      </c>
+      <c r="F26" s="3">
         <v>484200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>455100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>424500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>740000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>444800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-144200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>284500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>586200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>294800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>139000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>323500</v>
+        <v>109100</v>
       </c>
       <c r="E27" s="3">
+        <v>802800</v>
+      </c>
+      <c r="F27" s="3">
         <v>426700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>365800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>363100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>555100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>335200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-144200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>284500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>586200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>294800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>139000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,8 +1870,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,8 +1902,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1859,17 +1920,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>60300</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +1988,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,120 +2047,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18900</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-38300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-62400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-43500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-107200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>50400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>323500</v>
+        <v>109100</v>
       </c>
       <c r="E33" s="3">
+        <v>802800</v>
+      </c>
+      <c r="F33" s="3">
         <v>426700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>365800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>363100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>555100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>335200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-144200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>123700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>284500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>586200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>294800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>135600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2224,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>323500</v>
+        <v>109100</v>
       </c>
       <c r="E35" s="3">
+        <v>802800</v>
+      </c>
+      <c r="F35" s="3">
         <v>426700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>365800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>363100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>555100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>335200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-144200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>123700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>284500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>586200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>294800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>135600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E38" s="2">
         <v>44814</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44730</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44618</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44534</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44450</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44366</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44254</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44170</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44086</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44002</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43715</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43631</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43519</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43435</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2372,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,64 +2395,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4412300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3392400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3213100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2902000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2661000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2849800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2173800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1717000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1836100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2389600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2022200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>470700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>406400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>435300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>662100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>926100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>462600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,232 +2511,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>704800</v>
+      </c>
+      <c r="E43" s="3">
         <v>651700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>565300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>560600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>607400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>544700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>618700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>550900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>549500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>547100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>530000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>525300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>501200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>518600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>497400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>586200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>566900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5054900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4746400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4573200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4671000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4179100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4271900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4301300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4638000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4267100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4271600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4352500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4624200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4340300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4385400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4332800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4639500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>513700</v>
+      </c>
+      <c r="E45" s="3">
         <v>474100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>326600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>403000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>440300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>414700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>313100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>418800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>420600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>374800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>309000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>382800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>447800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>336400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>361900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>404900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>443600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10685700</v>
+      </c>
+      <c r="E46" s="3">
         <v>9264600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8678200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8366400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8379700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7988300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7377500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6988000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7444200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7578600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7132800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5731300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5979600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5630600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5906800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6250000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6112600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2701,120 +2806,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14942300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14947500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14978300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15258000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15172200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15062400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15152400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15428300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14829300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14879200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14875500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15079300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15058100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15063100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14943500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9861300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10143300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3609800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3564500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3510600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3486000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3440500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3381500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3349600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3292100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3259700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3261100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3268800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3270500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3307200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3361200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3454500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4017800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4076600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2983,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,64 +3042,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>976900</v>
+      </c>
+      <c r="E52" s="3">
         <v>977500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1052900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1012600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>943700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>912100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>902400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>889600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>786100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>750700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>710700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>654000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>646700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>643600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>676400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>647500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>649200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,64 +3160,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30214700</v>
+      </c>
+      <c r="E54" s="3">
         <v>28754100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28220000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28123000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27936100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27344300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26781900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26598000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26319300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26469600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25987800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24735100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24991600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24698500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24981200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20776600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20981700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3244,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,344 +3267,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3977700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4017800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3970300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4236800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4066100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3554200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3386300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3487300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3395000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3389800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3399800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2891100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3183200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2946600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3077900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2918700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3119200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2025600</v>
+      </c>
+      <c r="E58" s="3">
         <v>826000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>825400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>828800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>211500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>214300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>212400</v>
       </c>
       <c r="K58" s="3">
         <v>212400</v>
       </c>
       <c r="L58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="M58" s="3">
         <v>331600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>219100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>221400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>133300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>117100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>145000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>148800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>412600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7305700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3116600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3282900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3313100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3304000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3103600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3132500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2989900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3006300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3131400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2791800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2655700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2666000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2491900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2085200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2008900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13309000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8244500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7912300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8348500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7461200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7069700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6704200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6832200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6597300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6727700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6750300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5904300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5972200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5729700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5714800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5152700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5540700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7091700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7106800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7121200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7136300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7915700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8129100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8145800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8101200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8328000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8460000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8484500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8493300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8615900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8628600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9688600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10437600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10565300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8415700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8403600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8480500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8335100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8649400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8586500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8634400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8741200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8420200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8181200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7959000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8059400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7992900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7994700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7523400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3735600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3485600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3678,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3737,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,64 +3796,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28816400</v>
+      </c>
+      <c r="E66" s="3">
         <v>23754900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23514000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23819900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24026300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23785300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23484400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23674600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23345500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23368900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23193800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22457000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22581000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22353000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22926800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19325900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19591600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +3880,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +3937,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,22 +3996,25 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>579300</v>
+      </c>
+      <c r="E70" s="3">
         <v>612200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>635400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1599100</v>
       </c>
       <c r="H70" s="3">
         <v>1599100</v>
@@ -3867,7 +4035,7 @@
         <v>1599100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3887,8 +4055,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,64 +4114,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-417200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3239900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2972100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2564900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2187100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1846200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1624800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1263000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1481400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1432200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1174600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>592300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>524500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>469700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>174900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-431800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-567700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4232,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4291,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,64 +4350,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4387000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4070600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3024600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2310700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1959900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1698400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1324300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1374700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1501600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1194900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2278100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2410600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2345500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2054400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1450700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1390100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4468,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E80" s="2">
         <v>44814</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44730</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44618</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44534</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44450</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44366</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44254</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44170</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44086</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44002</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43715</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43631</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43519</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43435</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>323500</v>
+        <v>109100</v>
       </c>
       <c r="E81" s="3">
+        <v>802800</v>
+      </c>
+      <c r="F81" s="3">
         <v>426700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>365800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>363100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>555100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>335200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-144200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>123700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>284500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>586200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>294800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>135600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,64 +4616,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>412100</v>
+        <v>421100</v>
       </c>
       <c r="E83" s="3">
+        <v>959800</v>
+      </c>
+      <c r="F83" s="3">
         <v>547700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>408100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>390000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>883200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>504200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>365200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>362900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>348700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>460100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>409400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>384300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>381700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>515900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>398000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>401600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4732,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4791,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +4850,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +4909,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,64 +4968,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>660200</v>
+        <v>419900</v>
       </c>
       <c r="E89" s="3">
+        <v>1652100</v>
+      </c>
+      <c r="F89" s="3">
         <v>991900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>730600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>645100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2137700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1059000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>906500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>275200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>628900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2091900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>516900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>302200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>282100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>802700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>618800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-122200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,64 +5052,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-446900</v>
+        <v>-506200</v>
       </c>
       <c r="E91" s="3">
+        <v>-1060700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-613800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-390100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-393900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-822500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-513400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-547200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-380100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-402300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-391400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-367400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-354200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-362100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-445700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-285700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5168,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,64 +5227,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-426300</v>
+        <v>-501000</v>
       </c>
       <c r="E94" s="3">
+        <v>-977700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-551400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-361800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-386600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-790500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-493000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-627700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-257200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-287700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-399400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-353100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-333100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>601700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-294000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>273800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-272400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,35 +5311,36 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63700</v>
+        <v>-64200</v>
       </c>
       <c r="E96" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-63000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-58400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-56000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-93000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5134,8 +5368,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5427,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5486,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,64 +5545,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-97100</v>
+        <v>1101000</v>
       </c>
       <c r="E100" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-129500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-127800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-447300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-214400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-397900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-563200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>26200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-101500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-762700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-411000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-789100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5414,60 +5663,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>136800</v>
+        <v>1019900</v>
       </c>
       <c r="E102" s="3">
+        <v>447800</v>
+      </c>
+      <c r="F102" s="3">
         <v>311000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>241000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-188800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1132800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>456800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-119100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-545200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>367400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1585600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>62300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-48100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-249000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-254000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>481600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,265 +665,277 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44982</v>
+      </c>
+      <c r="E7" s="2">
         <v>44898</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44814</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44730</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44618</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44534</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44450</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44366</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44254</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44170</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44086</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44002</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43715</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43631</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43519</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43435</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18265100</v>
+      </c>
+      <c r="E8" s="3">
         <v>18154900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41229700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23310300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17383500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16728400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37775100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21269400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15772300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15408900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15757600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22751600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15436800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14103200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14176700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18738400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14016600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13840400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13180800</v>
+      </c>
+      <c r="E9" s="3">
         <v>13033200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29680100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16765300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12399200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11898300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26867100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15078400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11212800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10900300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11182700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15980100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11018800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10108100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10235200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13498800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9957900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9988000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5084300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5121700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11549600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6545000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4984300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4830100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10908000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6191000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4559500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4508600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4574900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6771500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4418000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3995100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3941500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5239600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4058700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3852400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,8 +957,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,99 +1079,105 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E14" s="3">
         <v>32600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>66500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>31200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>66700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>61700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>42700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>404500</v>
+      </c>
+      <c r="E15" s="3">
         <v>393300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>897500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>511600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>369000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>351200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>796400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>453400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>324500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>325100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1194,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1181,8 +1203,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1201,126 +1226,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17831500</v>
+      </c>
+      <c r="E17" s="3">
         <v>17572500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39938600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22550200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16719200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16132500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36602100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20582300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15974700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15159000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15244700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21779800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15155800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13896600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13617400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18459600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13727400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13675500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>433600</v>
+      </c>
+      <c r="E18" s="3">
         <v>582400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1291100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>760100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>664300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>595900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1173000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>687100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-202400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>249900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>512900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>971800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>281000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>206600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>559300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>278800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>289200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>164900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,303 +1374,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>47500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>38300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>62400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>43500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>107200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-50400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>869300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1001800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2276100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1314100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1119900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1024200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2118600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1234800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>270000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>632000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>873000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1428800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>640000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>606800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>935900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>805800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>703300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>594800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E22" s="3">
         <v>84300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>228700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>138900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>108000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>111300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>262600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>153300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>113100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>115900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>128600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>140500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>154800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>177500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>225200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>168300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>213000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E23" s="3">
         <v>496400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1087600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>627500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>603800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>522900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>972800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>577300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-208300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>153200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>395700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>788100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>67700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>376700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>137000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E24" s="3">
         <v>120900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>260700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>143300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>148700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>98400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>232800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>132500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-64100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>111200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>201900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>81900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,126 +1744,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>311100</v>
+      </c>
+      <c r="E26" s="3">
         <v>375500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>826900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>484200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>455100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>424500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>740000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>444800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-144200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>284500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>586200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>294800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>49000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>139000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E27" s="3">
         <v>109100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>802800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>426700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>365800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>363100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>555100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>335200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-144200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>284500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>586200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>294800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>139000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1930,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1905,8 +1965,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1923,17 +1983,20 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>60300</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1991,8 +2054,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2050,126 +2116,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-47500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-38300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-62400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-43500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-107200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>50400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E33" s="3">
         <v>109100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>802800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>426700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>365800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>363100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>555100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>335200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-144200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>123700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>284500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>586200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>294800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>135600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2227,131 +2302,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E35" s="3">
         <v>109100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>802800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>426700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>365800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>363100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>555100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>335200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-144200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>123700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>284500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>586200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>294800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>135600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44982</v>
+      </c>
+      <c r="E38" s="2">
         <v>44898</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44814</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44730</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44618</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44534</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44450</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44366</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44254</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44170</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44086</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44002</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43715</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43631</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43519</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43435</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2373,8 +2457,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2396,67 +2481,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E41" s="3">
         <v>4412300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3392400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3213100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2902000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2661000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2849800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2173800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1717000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1836100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2389600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2022200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>470700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>406400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>435300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>662100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>926100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>462600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2514,244 +2603,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E43" s="3">
         <v>704800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>651700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>565300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>560600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>607400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>544700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>618700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>550900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>549500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>547100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>530000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>525300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>501200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>518600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>497400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>586200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>566900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5054900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4746400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4573200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4500800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4671000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4179100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4271900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4301300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4638000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4267100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4271600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4352500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4624200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4340300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4385400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4332800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4639500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E45" s="3">
         <v>513700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>474100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>326600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>403000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>440300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>414700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>313100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>418800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>420600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>374800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>309000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>382800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>447800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>336400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>361900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>404900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>443600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6270400</v>
+      </c>
+      <c r="E46" s="3">
         <v>10685700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9264600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8678200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8366400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8379700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7988300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7377500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6988000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7444200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7578600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7132800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5731300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5979600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5630600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5906800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6250000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6112600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2809,126 +2913,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15237800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14942300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14947500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14978300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15258000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15172200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15062400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15152400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15428300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14829300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14879200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14875500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15079300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15058100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15063100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14943500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9861300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10143300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3666400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3609800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3564500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3510600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3486000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3440500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3381500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3349600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3292100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3259700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3261100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3268800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3270500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3307200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3361200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3454500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4017800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4076600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2986,8 +3099,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3045,67 +3161,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>993600</v>
+      </c>
+      <c r="E52" s="3">
         <v>976900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>977500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1052900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1012600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>943700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>912100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>902400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>889600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>786100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>750700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>710700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>654000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>646700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>643600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>676400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>647500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>649200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3163,67 +3285,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26168200</v>
+      </c>
+      <c r="E54" s="3">
         <v>30214700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28754100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28220000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28123000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27936100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27344300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26781900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26598000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26319300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26469600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25987800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24735100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24991600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24698500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24981200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20776600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20981700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3245,8 +3373,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3268,362 +3397,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4173100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3977700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4017800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3970300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4236800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4066100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3554200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3386300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3487300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3395000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3389800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3399800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2891100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3183200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2946600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3077900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2918700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3119200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1075700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2025600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>826000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>825400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>828800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>211500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>214300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>212400</v>
       </c>
       <c r="L58" s="3">
         <v>212400</v>
       </c>
       <c r="M58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="N58" s="3">
         <v>331600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>219100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>221400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>133300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>117100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>145000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>148800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>412600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7305700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3116600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3282900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3313100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3304000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3103600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3132500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2989900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3006300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3131400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2791800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2655700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2666000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2491900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2085200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2008900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8428800</v>
+      </c>
+      <c r="E60" s="3">
         <v>13309000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8244500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7912300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8348500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7461200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7069700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6704200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6832200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6597300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6727700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6750300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5904300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5972200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5729700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5714800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5152700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5540700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7834400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7091700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7106800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7121200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7136300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7915700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8129100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8145800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8101200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8328000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8460000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8484500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8493300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8615900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8628600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9688600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10437600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10565300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8248600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8415700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8403600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8480500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8335100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8649400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8586500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8634400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8741200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8420200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8181200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7959000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8059400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7992900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7994700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7523400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3735600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3485600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3681,8 +3829,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3740,8 +3891,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3799,67 +3953,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24511800</v>
+      </c>
+      <c r="E66" s="3">
         <v>28816400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23754900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23514000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23819900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24026300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23785300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23484400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23674600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23345500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23368900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23193800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22457000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22581000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22353000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22926800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19325900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19591600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3881,8 +4041,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3940,8 +4101,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3999,25 +4163,28 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E70" s="3">
         <v>579300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>612200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>635400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1599100</v>
       </c>
       <c r="I70" s="3">
         <v>1599100</v>
@@ -4038,7 +4205,7 @@
         <v>1599100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4058,8 +4225,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4117,67 +4287,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-417200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3239900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2972100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2564900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2187100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1846200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1624800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1263000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1481400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1432200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1174600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>592300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>524500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>469700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>174900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-431800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-567700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4235,8 +4411,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4294,8 +4473,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4353,67 +4535,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1610700</v>
+      </c>
+      <c r="E76" s="3">
         <v>819000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4387000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4070600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3024600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2310700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1959900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1698400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1324300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1374700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1501600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1194900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2278100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2410600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2345500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2054400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1450700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1390100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4471,131 +4659,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44982</v>
+      </c>
+      <c r="E80" s="2">
         <v>44898</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44814</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44730</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44618</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44534</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44450</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44366</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44254</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44170</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44086</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44002</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43715</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43631</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43519</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43435</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E81" s="3">
         <v>109100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>802800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>426700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>365800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>363100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>555100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>335200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-144200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>123700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>284500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>586200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>294800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>135600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4617,67 +4814,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>426200</v>
+      </c>
+      <c r="E83" s="3">
         <v>421100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>959800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>547700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>408100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>390000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>883200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>504200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>365200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>362900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>348700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>460100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>409400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>384300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>381700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>515900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>398000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>401600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4735,8 +4936,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4794,8 +4998,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4853,8 +5060,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4912,8 +5122,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4971,67 +5184,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>781900</v>
+      </c>
+      <c r="E89" s="3">
         <v>419900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1652100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>991900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>730600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>645100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2137700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1059000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>906500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>275200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>628900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2091900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>516900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>302200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>282100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>802700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>618800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-122200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5053,67 +5272,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-587000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-506200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1060700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-446900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-613800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-390100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-393900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-822500</v>
-      </c>
       <c r="J91" s="3">
+        <v>-309100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-513400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-547200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-380100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-402300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-391400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-367400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-354200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-362100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-445700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-285700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5171,8 +5394,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5230,67 +5456,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-498600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-501000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-977700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-551400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-361800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-386600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-790500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-493000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-627700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-257200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-287700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-399400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-353100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-333100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>601700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-294000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>273800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-272400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5312,8 +5544,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5321,29 +5554,29 @@
         <v>-64200</v>
       </c>
       <c r="E96" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-126700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-63000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-58400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-56000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-93000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5371,8 +5604,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5430,8 +5666,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5489,8 +5728,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5548,67 +5790,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4239800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1101000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-226600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-129500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-127800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-447300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-214400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-397900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-563200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-101500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-762700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-411000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-789100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5666,63 +5914,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3956500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1019900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>447800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>311000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>241000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-188800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1132800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>456800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-119100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-545200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>367400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1585600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>62300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-249000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-254000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>481600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,277 +665,289 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E7" s="2">
         <v>44982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44898</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44814</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44730</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44618</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44534</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44450</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44366</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44254</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44170</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44086</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44002</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43715</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43631</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43519</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43435</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24050200</v>
+      </c>
+      <c r="E8" s="3">
         <v>18265100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18154900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41229700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23310300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17383500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16728400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37775100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21269400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15772300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15408900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15757600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22751600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15436800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14103200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14176700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18738400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14016600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13840400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17387500</v>
+      </c>
+      <c r="E9" s="3">
         <v>13180800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13033200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29680100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16765300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12399200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11898300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26867100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15078400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11212800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10900300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11182700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15980100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11018800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10108100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10235200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13498800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9957900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9988000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6662700</v>
+      </c>
+      <c r="E10" s="3">
         <v>5084300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5121700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11549600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6545000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4984300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4830100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10908000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6191000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4559500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4508600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4574900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6771500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4418000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3995100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3941500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5239600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4058700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3852400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,8 +970,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1033,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,105 +1098,111 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E14" s="3">
         <v>51600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>32600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>66500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>31200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>66700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>61700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>42700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>499300</v>
+      </c>
+      <c r="E15" s="3">
         <v>404500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>393300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>897500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>511600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>369000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>351200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>796400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>453400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>324500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>325100</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1197,8 +1219,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1206,8 +1228,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1227,132 +1252,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23428000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17831500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17572500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39938600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22550200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16719200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16132500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36602100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20582300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15974700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15159000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15244700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21779800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15155800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13896600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13617400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18459600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13727400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13675500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>622200</v>
+      </c>
+      <c r="E18" s="3">
         <v>433600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>582400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1291100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>760100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>664300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>595900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1173000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>687100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-202400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>249900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>512900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>971800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>281000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>206600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>559300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>278800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>289200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>164900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,318 +1407,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>38300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>62400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>107200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1168800</v>
+      </c>
+      <c r="E21" s="3">
         <v>869300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1001800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2276100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1314100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1119900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1024200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2118600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1234800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>270000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>632000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>873000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1428800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>640000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>606800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>935900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>805800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>703300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>594800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E22" s="3">
         <v>91600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>84300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>228700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>138900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>108000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>111300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>262600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>153300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>113100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>128600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>140500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>154800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>177500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>225200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>168300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>213000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>483300</v>
+      </c>
+      <c r="E23" s="3">
         <v>351500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>496400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1087600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>627500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>603800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>522900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>972800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>577300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-208300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>153200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>395700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>788100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>90100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>376700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>137000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E24" s="3">
         <v>40400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>120900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>260700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>143300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>148700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>98400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>232800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>132500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-64100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>111200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>201900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>81900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1747,132 +1795,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>417200</v>
+      </c>
+      <c r="E26" s="3">
         <v>311100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>375500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>826900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>484200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>455100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>424500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>740000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>444800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-144200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>284500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>586200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>294800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>49000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>139000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>416500</v>
+      </c>
+      <c r="E27" s="3">
         <v>298400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>109100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>802800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>426700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>365800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>363100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>555100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>335200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-144200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>123700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>284500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>586200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>294800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>139000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1990,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1968,8 +2028,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1986,17 +2046,20 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>60300</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2057,8 +2120,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2119,132 +2185,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-38300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-62400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-107200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>416500</v>
+      </c>
+      <c r="E33" s="3">
         <v>298400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>109100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>802800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>426700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>365800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>363100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>555100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>335200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-144200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>123700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>284500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>586200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>294800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>135600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2305,137 +2380,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>416500</v>
+      </c>
+      <c r="E35" s="3">
         <v>298400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>109100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>802800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>426700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>365800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>363100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>555100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>335200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-144200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>123700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>284500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>586200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>294800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>135600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E38" s="2">
         <v>44982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44898</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44814</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44730</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44618</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44534</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44450</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44366</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44254</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44170</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44086</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44002</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43715</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43631</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43519</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43435</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2458,8 +2542,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2482,93 +2567,97 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E41" s="3">
         <v>455800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4412300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3392400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3213100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2902000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2661000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2849800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2173800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1717000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1836100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2389600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2022200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>470700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>406400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>435300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>662100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>926100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>462600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>21400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2606,279 +2695,294 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>684300</v>
+      </c>
+      <c r="E43" s="3">
         <v>687600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>704800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>651700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>565300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>560600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>607400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>544700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>618700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>550900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>549500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>547100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>530000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>525300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>501200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>518600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>497400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>586200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>566900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4844900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4782000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5054900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4746400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4573200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4500800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4671000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4179100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4271900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4301300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4638000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4267100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4271600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4352500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4624200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4340300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4385400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4332800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4639500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>345000</v>
+        <v>287200</v>
       </c>
       <c r="E45" s="3">
+        <v>323600</v>
+      </c>
+      <c r="F45" s="3">
         <v>513700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>474100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>326600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>403000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>440300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>414700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>313100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>418800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>420600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>374800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>309000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>382800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>447800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>336400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>361900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>404900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>443600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6060600</v>
+      </c>
+      <c r="E46" s="3">
         <v>6270400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10685700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9264600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8678200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8366400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8379700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7988300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7377500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6988000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7444200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7578600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7132800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5731300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5979600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5630600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5906800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6250000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6112600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>105100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>99300</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2916,132 +3020,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15238000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15237800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14942300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14947500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14978300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15258000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15172200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15062400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15152400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15428300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14829300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14879200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14875500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15079300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15058100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15063100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14943500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9861300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10143300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3674200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3666400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3609800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3564500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3510600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3486000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3440500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3381500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3349600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3292100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3259700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3261100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3268800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3270500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3307200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3361200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3454500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4017800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4076600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3102,8 +3215,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3164,70 +3280,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>993600</v>
+        <v>739300</v>
       </c>
       <c r="E52" s="3">
+        <v>894300</v>
+      </c>
+      <c r="F52" s="3">
         <v>976900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>977500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1052900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1012600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>943700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>912100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>902400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>889600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>786100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>750700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>710700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>654000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>646700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>643600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>676400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>647500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>649200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3288,70 +3410,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25817200</v>
+      </c>
+      <c r="E54" s="3">
         <v>26168200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30214700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28754100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28220000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28123000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27936100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27344300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26781900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26598000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26319300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26469600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25987800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24735100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24991600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24698500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24981200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20776600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20981700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3374,8 +3502,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3398,380 +3527,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4173100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3977700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4017800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3970300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4236800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4066100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3554200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3386300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3487300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3395000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3389800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3399800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2891100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3183200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2946600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3077900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2918700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3119200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>574200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1075700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2025600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>826000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>825400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>828800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>82000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>211500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>214300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>212400</v>
       </c>
       <c r="M58" s="3">
         <v>212400</v>
       </c>
       <c r="N58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="O58" s="3">
         <v>331600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>219100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>221400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>133300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>117100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>145000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>148800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>412600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3135700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3180000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7305700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3116600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3282900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3313100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3304000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3103600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3132500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2989900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3006300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3131400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2791800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2655700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2666000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2491900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2085200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2008900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7723100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8428800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13309000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8244500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7912300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8348500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7461200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7069700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6704200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6832200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6597300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6727700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6750300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5904300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5972200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5729700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5714800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5152700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5540700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7825000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7834400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7091700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7106800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7121200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7136300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7915700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8129100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8145800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8101200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8328000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8460000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8484500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8493300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8615900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8628600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9688600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10437600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10565300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8269100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8248600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8415700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8403600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8480500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8335100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8649400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8586500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8634400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8741200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8420200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8181200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7959000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8059400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7992900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7994700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7523400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3735600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3485600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3832,8 +3980,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3894,8 +4045,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3956,70 +4110,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23817200</v>
+      </c>
+      <c r="E66" s="3">
         <v>24511800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28816400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23754900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23514000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23819900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24026300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23785300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23484400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23674600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23345500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23368900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23193800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22457000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22581000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22353000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22926800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19325900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19591600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4042,8 +4202,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4104,8 +4265,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4166,28 +4330,31 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>45700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>579300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>612200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>635400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1599100</v>
       </c>
       <c r="J70" s="3">
         <v>1599100</v>
@@ -4208,7 +4375,7 @@
         <v>1599100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4228,8 +4395,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4290,70 +4460,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-417200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3239900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2972100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2564900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2187100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1846200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1624800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1263000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1481400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1432200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1174600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>592300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>524500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>469700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>174900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-431800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-567700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4414,8 +4590,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4476,8 +4655,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4538,70 +4720,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1610700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>819000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4387000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4070600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3024600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2310700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1959900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1698400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1324300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1374700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1501600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1194900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2278100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2410600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2345500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2054400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1450700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1390100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4662,137 +4850,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45094</v>
+      </c>
+      <c r="E80" s="2">
         <v>44982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44898</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44814</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44730</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44618</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44534</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44450</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44366</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44254</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44170</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44086</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44002</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43715</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43631</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43519</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43435</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>416500</v>
+      </c>
+      <c r="E81" s="3">
         <v>298400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>109100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>802800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>426700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>365800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>363100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>555100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>335200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-144200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>123700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>284500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>586200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>294800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>135600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4815,70 +5012,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>530600</v>
+      </c>
+      <c r="E83" s="3">
         <v>426200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>421100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>959800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>547700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>408100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>390000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>883200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>504200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>365200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>362900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>348700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>460100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>409400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>384300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>381700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>515900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>398000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>401600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4939,8 +5140,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5001,8 +5205,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5063,8 +5270,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5125,8 +5335,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5187,70 +5400,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>838300</v>
+      </c>
+      <c r="E89" s="3">
         <v>781900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>419900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1652100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>991900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>730600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>645100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2137700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1059000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>906500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>275200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>628900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2091900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>516900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>302200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>282100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>802700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>618800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-122200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5273,70 +5492,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-622500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-587000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-506200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-446900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-613800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-390100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-393900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-309100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-513400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-547200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-380100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-402300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-391400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-367400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-354200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-362100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-445700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-285700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5397,8 +5620,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5459,70 +5685,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-453900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-498600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-501000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-977700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-551400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-361800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-386600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-790500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-493000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-627700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-257200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-287700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-399400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-353100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-333100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>601700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-294000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>273800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-272400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5545,41 +5777,42 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-64200</v>
+        <v>-69000</v>
       </c>
       <c r="E96" s="3">
         <v>-64200</v>
       </c>
       <c r="F96" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-126700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-63000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-58400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-56000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-93000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5607,8 +5840,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5669,8 +5905,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5731,8 +5970,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5793,70 +6035,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-615000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4239800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1101000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-226600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-129500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-127800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-447300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-214400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-397900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-563200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-101500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-762700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-411000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-789100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5917,66 +6165,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3956500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1019900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>447800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>311000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>241000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-188800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1132800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>456800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-119100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-545200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>367400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1585600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-48100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-249000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-254000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>481600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>422200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ACI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,289 +665,301 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E7" s="2">
         <v>45094</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44898</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44814</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44730</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44618</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44534</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44450</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44366</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44254</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44170</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44086</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43715</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43631</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43519</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43435</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18290700</v>
+      </c>
+      <c r="E8" s="3">
         <v>24050200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18265100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18154900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41229700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23310300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17383500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16728400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37775100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21269400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15772300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15408900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15757600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22751600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15436800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14103200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14176700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18738400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14016600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13840400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14024100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13249200</v>
+      </c>
+      <c r="E9" s="3">
         <v>17387500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13180800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13033200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29680100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16765300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12399200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11898300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26867100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15078400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11212800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10900300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11182700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15980100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11018800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10108100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10235200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13498800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9957900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9988000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10211300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5041500</v>
+      </c>
+      <c r="E10" s="3">
         <v>6662700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5084300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5121700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11549600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6545000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4984300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4830100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10908000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6191000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4559500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4508600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4574900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6771500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4418000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3995100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3941500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5239600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4058700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3852400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3812800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,8 +983,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,8 +1049,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1101,111 +1117,117 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E14" s="3">
         <v>59200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>51600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>32600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>66500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>31200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>49100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>66700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>61700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>42700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9500</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>387400</v>
+      </c>
+      <c r="E15" s="3">
         <v>499300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>404500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>393300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>897500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>511600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>369000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>351200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>796400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>453400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>324500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>325100</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1222,8 +1244,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1231,8 +1253,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1253,138 +1278,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17836300</v>
+      </c>
+      <c r="E17" s="3">
         <v>23428000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17831500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17572500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39938600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22550200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16719200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16132500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36602100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20582300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15974700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15159000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15244700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21779800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15155800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13896600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13617400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18459600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13727400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13675500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13892700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>454400</v>
+      </c>
+      <c r="E18" s="3">
         <v>622200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>433600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>582400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1291100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>760100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>664300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>595900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1173000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>687100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-202400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>249900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>512900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>971800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>281000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>206600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>559300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>278800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>289200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>164900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1408,333 +1440,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>25200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>38300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>107200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>860900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1168800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>869300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1001800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2276100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1314100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1119900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1024200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2118600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1234800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>270000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>632000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>873000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1428800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>640000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>606800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>935900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>805800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>703300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>594800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>553200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E22" s="3">
         <v>154900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>91600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>84300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>228700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>138900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>108000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>111300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>262600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>153300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>113100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>115900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>128600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>140500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>154800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>177500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>225200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>168300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>213000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>194900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>334400</v>
+      </c>
+      <c r="E23" s="3">
         <v>483300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>351500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>496400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1087600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>627500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>603800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>522900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>972800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>577300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-208300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>395700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>788100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>67700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>376700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>137000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-44300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E24" s="3">
         <v>66100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>120900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>260700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>143300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>148700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>98400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>232800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>132500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-64100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>111200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>201900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>81900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1798,138 +1846,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E26" s="3">
         <v>417200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>311100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>375500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>826900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>484200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>455100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>424500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>740000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>444800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-144200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>123700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>284500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>586200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>54800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>294800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>49000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>139000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E27" s="3">
         <v>416500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>298400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>109100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>802800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>426700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>365800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>363100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>555100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>335200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-144200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>123700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>284500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>586200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>294800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>139000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1993,8 +2050,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,8 +2091,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2049,17 +2109,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>60300</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2123,8 +2186,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2188,138 +2254,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-25200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-38300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-107200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E33" s="3">
         <v>416500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>298400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>109100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>802800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>426700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>365800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>363100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>555100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>335200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-144200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>123700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>284500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>586200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>294800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>135600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2383,143 +2458,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E35" s="3">
         <v>416500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>298400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>109100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>802800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>426700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>365800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>363100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>555100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>335200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-144200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>123700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>284500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>586200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>294800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>135600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E38" s="2">
         <v>45094</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44898</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44814</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44730</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44618</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44534</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44450</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44366</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44254</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44170</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44086</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44002</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43715</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43631</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43519</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43435</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2543,8 +2627,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2568,84 +2653,88 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>266100</v>
+      </c>
+      <c r="E41" s="3">
         <v>225200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>455800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4412300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3392400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3213100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2902000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2661000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2849800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2173800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1717000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1836100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2389600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2022200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>470700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>406400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>435300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>662100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>926100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>462600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E42" s="3">
         <v>19000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2659,8 +2748,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2698,279 +2787,294 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>710100</v>
+      </c>
+      <c r="E43" s="3">
         <v>684300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>687600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>704800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>651700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>565300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>560600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>607400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>544700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>618700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>550900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>549500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>547100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>530000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>525300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>501200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>518600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>497400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>586200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>566900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5048300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4844900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4782000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5054900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4746400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4573200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4500800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4671000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4179100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4271900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4301300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4638000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4267100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4271600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4352500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4624200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4340300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4385400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4332800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4639500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4308100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>378900</v>
+      </c>
+      <c r="E45" s="3">
         <v>287200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>323600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>513700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>474100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>326600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>403000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>440300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>414700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>313100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>418800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>420600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>374800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>309000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>382800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>447800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>336400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>361900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>404900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>443600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>347800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6421600</v>
+      </c>
+      <c r="E46" s="3">
         <v>6060600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6270400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10685700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9264600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8678200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8366400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8379700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7988300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7377500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6988000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7444200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7578600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7132800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5731300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5979600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5630600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5906800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6250000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6112600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6845700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E47" s="3">
         <v>105100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2984,8 +3088,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3023,138 +3127,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15387000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15238000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15237800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14942300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14947500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14978300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15258000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15172200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15062400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15152400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15428300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14829300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14879200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14875500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15079300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15058100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15063100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14943500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9861300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10143300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10256900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3661700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3674200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3666400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3609800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3564500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3510600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3486000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3440500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3381500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3349600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3292100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3259700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3261100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3268800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3270500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3307200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3361200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3454500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4017800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4076600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4152200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3218,8 +3331,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3283,73 +3399,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>750600</v>
+      </c>
+      <c r="E52" s="3">
         <v>739300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>894300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>976900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>977500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1052900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1012600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>943700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>912100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>902400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>889600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>786100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>750700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>710700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>654000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>646700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>643600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>676400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>647500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>649200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3413,73 +3535,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26322500</v>
+      </c>
+      <c r="E54" s="3">
         <v>25817200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26168200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30214700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28754100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28220000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28123000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27936100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27344300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26781900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26598000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26319300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26469600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25987800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24735100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24991600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24698500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24981200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20776600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20981700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21816800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3503,8 +3631,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3528,398 +3657,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4149700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4013200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4173100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3977700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4017800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3970300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4236800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4066100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3554200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3386300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3487300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3395000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3389800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3399800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2891100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3183200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2946600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3077900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2918700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3119200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E58" s="3">
         <v>574200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1075700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2025600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>826000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>825400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>828800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>82000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>211500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>214300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>212400</v>
       </c>
       <c r="N58" s="3">
         <v>212400</v>
       </c>
       <c r="O58" s="3">
+        <v>212400</v>
+      </c>
+      <c r="P58" s="3">
         <v>331600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>219100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>221400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>133300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>117100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>145000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>148800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>412600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>436500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3135000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3135700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3180000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7305700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3116600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3282900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3313100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3304000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3103600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3132500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2989900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3006300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3131400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2791800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2655700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2666000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2491900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2085200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2008900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2089300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7923500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7723100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8428800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13309000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8244500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7912300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8348500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7461200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7069700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6704200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6832200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6597300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6727700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6750300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5904300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5972200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5729700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5714800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5152700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5540700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5474000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7810800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7825000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7834400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7091700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7106800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7121200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7136300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7915700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8129100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8145800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8101200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8328000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8460000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8484500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8493300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8615900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8628600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9688600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10437600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10565300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11328900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8371600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8269100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8248600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8415700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8403600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8480500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8335100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8649400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8586500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8634400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8741200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8420200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8181200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7959000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8059400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7992900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7994700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7523400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3735600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3485600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3651300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3983,8 +4131,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4048,8 +4199,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4113,73 +4267,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24105900</v>
+      </c>
+      <c r="E66" s="3">
         <v>23817200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24511800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28816400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23754900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23514000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23819900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24026300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23785300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23484400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23674600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23345500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23368900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23193800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22457000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22581000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22353000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22926800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19325900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19591600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20454200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4203,8 +4363,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4268,8 +4429,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4333,8 +4497,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4342,22 +4509,22 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>45700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>579300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>612200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>635400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1278500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1599100</v>
       </c>
       <c r="K70" s="3">
         <v>1599100</v>
@@ -4378,7 +4545,7 @@
         <v>1599100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>1599100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4398,8 +4565,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4463,73 +4633,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>356400</v>
+      </c>
+      <c r="E72" s="3">
         <v>159600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-185000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-417200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3239900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2972100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2564900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2187100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1846200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1624800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1263000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1481400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1432200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1174600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>592300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>524500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>469700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>174900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-431800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-567700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-613300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4593,8 +4769,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4658,8 +4837,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4723,73 +4905,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2216600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2000000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1610700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>819000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4387000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4070600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3024600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2310700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1959900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1698400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1324300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1374700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1501600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1194900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2278100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2410600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2345500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2054400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1450700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1390100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1362600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4853,143 +5041,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45178</v>
+      </c>
+      <c r="E80" s="2">
         <v>45094</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44898</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44814</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44730</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44618</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44534</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44450</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44366</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44254</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44170</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44086</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44002</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43715</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43631</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43519</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43435</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E81" s="3">
         <v>416500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>298400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>109100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>802800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>426700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>365800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>363100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>555100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>335200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-144200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>123700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>284500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>586200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>294800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>135600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-32400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5013,73 +5210,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>414600</v>
+      </c>
+      <c r="E83" s="3">
         <v>530600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>426200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>421100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>959800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>547700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>408100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>390000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>883200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>504200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>365200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>362900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>348700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>460100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>409400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>384300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>381700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>515900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>398000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>401600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>402600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5143,8 +5344,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5208,8 +5412,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5273,8 +5480,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5338,8 +5548,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5403,73 +5616,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E89" s="3">
         <v>838300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>781900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>419900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1652100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>991900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>730600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>645100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2137700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1059000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>906500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>275200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>628900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2091900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>516900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>302200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>282100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>802700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>618800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-122200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>279700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5493,73 +5712,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-461800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-622500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-587000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-506200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-446900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-613800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-390100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-393900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-309100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-513400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-547200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-380100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-402300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-391400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-367400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-354200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-362100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-445700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-285700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-281700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5623,8 +5846,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5688,73 +5914,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-436200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-453900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-498600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-501000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-977700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-551400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-361800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-386600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-790500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-493000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-627700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-257200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-287700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-399400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-353100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-333100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>601700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-294000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>273800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-272400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>189400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5778,8 +6010,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5787,35 +6020,35 @@
         <v>-69000</v>
       </c>
       <c r="E96" s="3">
-        <v>-64200</v>
+        <v>-69000</v>
       </c>
       <c r="F96" s="3">
         <v>-64200</v>
       </c>
       <c r="G96" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-126700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-63000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-58400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-56000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-93000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5843,8 +6076,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5908,8 +6144,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5973,8 +6212,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6038,73 +6280,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-615000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4239800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1101000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-226600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-129500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-127800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-447300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-214400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-397900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-563200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>26200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-106900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-101500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1132800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-762700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-411000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-789100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6168,69 +6416,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-230600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3956500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1019900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>447800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>311000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>241000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-188800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1132800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>456800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-119100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-545200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>367400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1585600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-48100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-249000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-254000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>481600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1183700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>422200</v>
       </c>
     </row>
